--- a/src/gatourism/data_P.xlsx
+++ b/src/gatourism/data_P.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\TSM\JavaApplication6\src\javaapplication6\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9017076-5AE8-48A6-80E2-F6F538E13D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
   <si>
     <t>title</t>
   </si>
@@ -607,7 +601,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -995,11 +989,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F191"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="E150" sqref="E150"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3079,7 +3073,7 @@
         <v>86400</v>
       </c>
       <c r="E104" s="6">
-        <v>125276</v>
+        <v>126070</v>
       </c>
       <c r="F104">
         <v>7200</v>
@@ -3090,16 +3084,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>107</v>
-      </c>
-      <c r="C105" s="8">
-        <v>0</v>
-      </c>
-      <c r="D105" s="8">
-        <v>86400</v>
+        <v>108</v>
+      </c>
+      <c r="C105" s="6">
+        <v>36000</v>
+      </c>
+      <c r="D105">
+        <v>79200</v>
       </c>
       <c r="E105" s="6">
-        <v>126070</v>
+        <v>277462</v>
       </c>
       <c r="F105">
         <v>7200</v>
@@ -3110,16 +3104,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C106" s="6">
-        <v>36000</v>
+        <v>25200</v>
       </c>
       <c r="D106">
         <v>79200</v>
       </c>
       <c r="E106" s="6">
-        <v>277462</v>
+        <v>295181</v>
       </c>
       <c r="F106">
         <v>7200</v>
@@ -3130,16 +3124,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C107" s="6">
-        <v>25200</v>
+        <v>32400</v>
       </c>
       <c r="D107">
-        <v>79200</v>
+        <v>75600</v>
       </c>
       <c r="E107" s="6">
-        <v>295181</v>
+        <v>241705</v>
       </c>
       <c r="F107">
         <v>7200</v>
@@ -3150,16 +3144,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C108" s="6">
-        <v>32400</v>
-      </c>
-      <c r="D108">
-        <v>75600</v>
+        <v>68400</v>
+      </c>
+      <c r="D108" s="4">
+        <v>97200</v>
       </c>
       <c r="E108" s="6">
-        <v>241705</v>
+        <v>168526</v>
       </c>
       <c r="F108">
         <v>7200</v>
@@ -3170,16 +3164,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C109" s="6">
-        <v>68400</v>
-      </c>
-      <c r="D109" s="4">
-        <v>97200</v>
+        <v>28800</v>
+      </c>
+      <c r="D109">
+        <v>77400</v>
       </c>
       <c r="E109" s="6">
-        <v>168526</v>
+        <v>242233</v>
       </c>
       <c r="F109">
         <v>7200</v>
@@ -3190,16 +3184,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C110" s="6">
-        <v>28800</v>
+        <v>36000</v>
       </c>
       <c r="D110">
-        <v>77400</v>
+        <v>75600</v>
       </c>
       <c r="E110" s="6">
-        <v>242233</v>
+        <v>169997</v>
       </c>
       <c r="F110">
         <v>7200</v>
@@ -3210,16 +3204,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C111" s="6">
-        <v>36000</v>
+        <v>28800</v>
       </c>
       <c r="D111">
-        <v>75600</v>
+        <v>79200</v>
       </c>
       <c r="E111" s="6">
-        <v>169997</v>
+        <v>161010</v>
       </c>
       <c r="F111">
         <v>7200</v>
@@ -3230,16 +3224,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C112" s="6">
-        <v>28800</v>
+        <v>36000</v>
       </c>
       <c r="D112">
         <v>79200</v>
       </c>
       <c r="E112" s="6">
-        <v>161010</v>
+        <v>125417</v>
       </c>
       <c r="F112">
         <v>7200</v>
@@ -3250,16 +3244,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C113" s="6">
-        <v>36000</v>
+        <v>25200</v>
       </c>
       <c r="D113">
-        <v>79200</v>
+        <v>43200</v>
       </c>
       <c r="E113" s="6">
-        <v>125417</v>
+        <v>183369</v>
       </c>
       <c r="F113">
         <v>7200</v>
@@ -3270,16 +3264,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C114" s="6">
         <v>25200</v>
       </c>
       <c r="D114">
-        <v>43200</v>
+        <v>75600</v>
       </c>
       <c r="E114" s="6">
-        <v>183369</v>
+        <v>293671</v>
       </c>
       <c r="F114">
         <v>7200</v>
@@ -3290,16 +3284,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C115" s="6">
-        <v>25200</v>
+        <v>32400</v>
       </c>
       <c r="D115">
-        <v>75600</v>
+        <v>77400</v>
       </c>
       <c r="E115" s="6">
-        <v>293671</v>
+        <v>292574</v>
       </c>
       <c r="F115">
         <v>7200</v>
@@ -3310,16 +3304,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C116" s="6">
-        <v>32400</v>
+        <v>28800</v>
       </c>
       <c r="D116">
-        <v>77400</v>
+        <v>75600</v>
       </c>
       <c r="E116" s="6">
-        <v>292574</v>
+        <v>251917</v>
       </c>
       <c r="F116">
         <v>7200</v>
@@ -3330,16 +3324,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C117" s="6">
-        <v>28800</v>
+        <v>27000</v>
       </c>
       <c r="D117">
-        <v>75600</v>
+        <v>61200</v>
       </c>
       <c r="E117" s="6">
-        <v>251917</v>
+        <v>135538</v>
       </c>
       <c r="F117">
         <v>7200</v>
@@ -3350,16 +3344,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C118" s="6">
         <v>27000</v>
       </c>
       <c r="D118">
-        <v>61200</v>
+        <v>75600</v>
       </c>
       <c r="E118" s="6">
-        <v>135538</v>
+        <v>281034</v>
       </c>
       <c r="F118">
         <v>7200</v>
@@ -3370,16 +3364,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C119" s="6">
-        <v>27000</v>
+        <v>25200</v>
       </c>
       <c r="D119">
         <v>75600</v>
       </c>
       <c r="E119" s="6">
-        <v>281034</v>
+        <v>243086</v>
       </c>
       <c r="F119">
         <v>7200</v>
@@ -3390,16 +3384,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C120" s="6">
-        <v>25200</v>
+        <v>28800</v>
       </c>
       <c r="D120">
-        <v>75600</v>
+        <v>79200</v>
       </c>
       <c r="E120" s="6">
-        <v>243086</v>
+        <v>293296</v>
       </c>
       <c r="F120">
         <v>7200</v>
@@ -3410,7 +3404,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C121" s="6">
         <v>28800</v>
@@ -3419,7 +3413,7 @@
         <v>79200</v>
       </c>
       <c r="E121" s="6">
-        <v>293296</v>
+        <v>247136</v>
       </c>
       <c r="F121">
         <v>7200</v>
@@ -3430,16 +3424,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C122" s="6">
         <v>28800</v>
       </c>
       <c r="D122">
-        <v>79200</v>
+        <v>81000</v>
       </c>
       <c r="E122" s="6">
-        <v>247136</v>
+        <v>133993</v>
       </c>
       <c r="F122">
         <v>7200</v>
@@ -3450,16 +3444,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C123" s="6">
         <v>28800</v>
       </c>
       <c r="D123">
-        <v>81000</v>
+        <v>79200</v>
       </c>
       <c r="E123" s="6">
-        <v>133993</v>
+        <v>208426</v>
       </c>
       <c r="F123">
         <v>7200</v>
@@ -3470,16 +3464,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>126</v>
-      </c>
-      <c r="C124" s="6">
-        <v>28800</v>
-      </c>
-      <c r="D124">
-        <v>79200</v>
+        <v>127</v>
+      </c>
+      <c r="C124" s="8">
+        <v>0</v>
+      </c>
+      <c r="D124" s="8">
+        <v>86400</v>
       </c>
       <c r="E124" s="6">
-        <v>208426</v>
+        <v>199011</v>
       </c>
       <c r="F124">
         <v>7200</v>
@@ -3490,16 +3484,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>127</v>
-      </c>
-      <c r="C125" s="8">
-        <v>0</v>
-      </c>
-      <c r="D125" s="8">
-        <v>86400</v>
+        <v>128</v>
+      </c>
+      <c r="C125" s="6">
+        <v>25200</v>
+      </c>
+      <c r="D125">
+        <v>75600</v>
       </c>
       <c r="E125" s="6">
-        <v>199011</v>
+        <v>210140</v>
       </c>
       <c r="F125">
         <v>7200</v>
@@ -3510,16 +3504,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C126" s="6">
-        <v>25200</v>
+        <v>28800</v>
       </c>
       <c r="D126">
-        <v>75600</v>
+        <v>64800</v>
       </c>
       <c r="E126" s="6">
-        <v>210140</v>
+        <v>246008</v>
       </c>
       <c r="F126">
         <v>7200</v>
@@ -3530,16 +3524,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C127" s="6">
-        <v>28800</v>
+        <v>36000</v>
       </c>
       <c r="D127">
-        <v>64800</v>
+        <v>79200</v>
       </c>
       <c r="E127" s="6">
-        <v>246008</v>
+        <v>118173</v>
       </c>
       <c r="F127">
         <v>7200</v>
@@ -3550,16 +3544,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C128" s="6">
-        <v>36000</v>
+        <v>34200</v>
       </c>
       <c r="D128">
         <v>79200</v>
       </c>
       <c r="E128" s="6">
-        <v>118173</v>
+        <v>266817</v>
       </c>
       <c r="F128">
         <v>7200</v>
@@ -3570,7 +3564,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C129" s="6">
         <v>34200</v>
@@ -3579,7 +3573,7 @@
         <v>79200</v>
       </c>
       <c r="E129" s="6">
-        <v>266817</v>
+        <v>153946</v>
       </c>
       <c r="F129">
         <v>7200</v>
@@ -3590,16 +3584,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C130" s="6">
-        <v>34200</v>
+        <v>28800</v>
       </c>
       <c r="D130">
         <v>79200</v>
       </c>
       <c r="E130" s="6">
-        <v>153946</v>
+        <v>280189</v>
       </c>
       <c r="F130">
         <v>7200</v>
@@ -3610,16 +3604,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C131" s="6">
-        <v>28800</v>
+        <v>25200</v>
       </c>
       <c r="D131">
-        <v>79200</v>
+        <v>61200</v>
       </c>
       <c r="E131" s="6">
-        <v>280189</v>
+        <v>110079</v>
       </c>
       <c r="F131">
         <v>7200</v>
@@ -3630,16 +3624,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>134</v>
-      </c>
-      <c r="C132" s="6">
-        <v>25200</v>
-      </c>
-      <c r="D132">
-        <v>61200</v>
+        <v>135</v>
+      </c>
+      <c r="C132" s="7">
+        <v>28800</v>
+      </c>
+      <c r="D132" s="3">
+        <v>39600</v>
       </c>
       <c r="E132" s="6">
-        <v>110079</v>
+        <v>277642</v>
       </c>
       <c r="F132">
         <v>7200</v>
@@ -3650,16 +3644,16 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>135</v>
-      </c>
-      <c r="C133" s="7">
-        <v>28800</v>
-      </c>
-      <c r="D133" s="3">
-        <v>39600</v>
+        <v>136</v>
+      </c>
+      <c r="C133" s="6">
+        <v>32400</v>
+      </c>
+      <c r="D133">
+        <v>61200</v>
       </c>
       <c r="E133" s="6">
-        <v>277642</v>
+        <v>231474</v>
       </c>
       <c r="F133">
         <v>7200</v>
@@ -3670,16 +3664,16 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>136</v>
-      </c>
-      <c r="C134" s="6">
-        <v>32400</v>
-      </c>
-      <c r="D134">
-        <v>61200</v>
+        <v>137</v>
+      </c>
+      <c r="C134" s="8">
+        <v>0</v>
+      </c>
+      <c r="D134" s="8">
+        <v>86400</v>
       </c>
       <c r="E134" s="6">
-        <v>231474</v>
+        <v>174920</v>
       </c>
       <c r="F134">
         <v>7200</v>
@@ -3690,16 +3684,16 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>137</v>
-      </c>
-      <c r="C135" s="8">
-        <v>0</v>
-      </c>
-      <c r="D135" s="8">
-        <v>86400</v>
+        <v>138</v>
+      </c>
+      <c r="C135" s="6">
+        <v>21600</v>
+      </c>
+      <c r="D135">
+        <v>79200</v>
       </c>
       <c r="E135" s="6">
-        <v>174920</v>
+        <v>142842</v>
       </c>
       <c r="F135">
         <v>7200</v>
@@ -3710,16 +3704,16 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C136" s="6">
-        <v>21600</v>
+        <v>28800</v>
       </c>
       <c r="D136">
         <v>79200</v>
       </c>
       <c r="E136" s="6">
-        <v>142842</v>
+        <v>122094</v>
       </c>
       <c r="F136">
         <v>7200</v>
@@ -3730,16 +3724,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C137" s="6">
-        <v>28800</v>
+        <v>32400</v>
       </c>
       <c r="D137">
-        <v>79200</v>
+        <v>61200</v>
       </c>
       <c r="E137" s="6">
-        <v>122094</v>
+        <v>255775</v>
       </c>
       <c r="F137">
         <v>7200</v>
@@ -3750,16 +3744,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C138" s="6">
-        <v>32400</v>
+        <v>28800</v>
       </c>
       <c r="D138">
-        <v>61200</v>
+        <v>79200</v>
       </c>
       <c r="E138" s="6">
-        <v>255775</v>
+        <v>158666</v>
       </c>
       <c r="F138">
         <v>7200</v>
@@ -3770,16 +3764,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C139" s="6">
-        <v>28800</v>
+        <v>30600</v>
       </c>
       <c r="D139">
-        <v>79200</v>
+        <v>68400</v>
       </c>
       <c r="E139" s="6">
-        <v>158666</v>
+        <v>145252</v>
       </c>
       <c r="F139">
         <v>7200</v>
@@ -3790,16 +3784,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C140" s="6">
-        <v>30600</v>
+        <v>25200</v>
       </c>
       <c r="D140">
-        <v>68400</v>
+        <v>79200</v>
       </c>
       <c r="E140" s="6">
-        <v>145252</v>
+        <v>113950</v>
       </c>
       <c r="F140">
         <v>7200</v>
@@ -3810,16 +3804,16 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C141" s="6">
-        <v>25200</v>
+        <v>27000</v>
       </c>
       <c r="D141">
-        <v>79200</v>
+        <v>64800</v>
       </c>
       <c r="E141" s="6">
-        <v>113950</v>
+        <v>131914</v>
       </c>
       <c r="F141">
         <v>7200</v>
@@ -3830,16 +3824,16 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C142" s="6">
         <v>27000</v>
       </c>
       <c r="D142">
-        <v>64800</v>
+        <v>79200</v>
       </c>
       <c r="E142" s="6">
-        <v>131914</v>
+        <v>117409</v>
       </c>
       <c r="F142">
         <v>7200</v>
@@ -3850,16 +3844,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C143" s="6">
-        <v>27000</v>
+        <v>32400</v>
       </c>
       <c r="D143">
         <v>79200</v>
       </c>
       <c r="E143" s="6">
-        <v>117409</v>
+        <v>234001</v>
       </c>
       <c r="F143">
         <v>7200</v>
@@ -3870,16 +3864,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C144" s="6">
-        <v>32400</v>
+        <v>34200</v>
       </c>
       <c r="D144">
-        <v>79200</v>
+        <v>72000</v>
       </c>
       <c r="E144" s="6">
-        <v>234001</v>
+        <v>299031</v>
       </c>
       <c r="F144">
         <v>7200</v>
@@ -3890,16 +3884,16 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C145" s="6">
-        <v>34200</v>
+        <v>36000</v>
       </c>
       <c r="D145">
-        <v>72000</v>
+        <v>79200</v>
       </c>
       <c r="E145" s="6">
-        <v>299031</v>
+        <v>260391</v>
       </c>
       <c r="F145">
         <v>7200</v>
@@ -3910,16 +3904,16 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C146" s="6">
-        <v>36000</v>
+        <v>30600</v>
       </c>
       <c r="D146">
-        <v>79200</v>
+        <v>61200</v>
       </c>
       <c r="E146" s="6">
-        <v>260391</v>
+        <v>124759</v>
       </c>
       <c r="F146">
         <v>7200</v>
@@ -3930,16 +3924,16 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C147" s="6">
-        <v>30600</v>
+        <v>25200</v>
       </c>
       <c r="D147">
-        <v>61200</v>
+        <v>68400</v>
       </c>
       <c r="E147" s="6">
-        <v>124759</v>
+        <v>283782</v>
       </c>
       <c r="F147">
         <v>7200</v>
@@ -3950,16 +3944,16 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C148" s="6">
-        <v>25200</v>
+        <v>32400</v>
       </c>
       <c r="D148">
-        <v>68400</v>
+        <v>72000</v>
       </c>
       <c r="E148" s="6">
-        <v>283782</v>
+        <v>118803</v>
       </c>
       <c r="F148">
         <v>7200</v>
@@ -3970,16 +3964,16 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C149" s="6">
-        <v>32400</v>
+        <v>21600</v>
       </c>
       <c r="D149">
-        <v>72000</v>
-      </c>
-      <c r="E149" s="6">
-        <v>118803</v>
+        <v>79200</v>
+      </c>
+      <c r="E149" s="9">
+        <v>500000</v>
       </c>
       <c r="F149">
         <v>7200</v>
@@ -3990,16 +3984,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C150" s="6">
-        <v>21600</v>
+        <v>25200</v>
       </c>
       <c r="D150">
         <v>79200</v>
       </c>
-      <c r="E150" s="9">
-        <v>500000</v>
+      <c r="E150" s="6">
+        <v>50000</v>
       </c>
       <c r="F150">
         <v>7200</v>
@@ -4010,7 +4004,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C151" s="6">
         <v>25200</v>
@@ -4019,7 +4013,7 @@
         <v>79200</v>
       </c>
       <c r="E151" s="6">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="F151">
         <v>7200</v>
@@ -4030,16 +4024,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C152" s="6">
-        <v>25200</v>
+        <v>32400</v>
       </c>
       <c r="D152">
-        <v>79200</v>
+        <v>77400</v>
       </c>
       <c r="E152" s="6">
-        <v>30000</v>
+        <v>500000</v>
       </c>
       <c r="F152">
         <v>7200</v>
@@ -4050,16 +4044,16 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>155</v>
-      </c>
-      <c r="C153" s="6">
-        <v>32400</v>
-      </c>
-      <c r="D153">
-        <v>77400</v>
+        <v>156</v>
+      </c>
+      <c r="C153" s="8">
+        <v>0</v>
+      </c>
+      <c r="D153" s="8">
+        <v>86400</v>
       </c>
       <c r="E153" s="6">
-        <v>500000</v>
+        <v>300000</v>
       </c>
       <c r="F153">
         <v>7200</v>
@@ -4070,16 +4064,16 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>156</v>
-      </c>
-      <c r="C154" s="8">
-        <v>0</v>
-      </c>
-      <c r="D154" s="8">
-        <v>86400</v>
+        <v>157</v>
+      </c>
+      <c r="C154" s="6">
+        <v>16200</v>
+      </c>
+      <c r="D154">
+        <v>37800</v>
       </c>
       <c r="E154" s="6">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="F154">
         <v>7200</v>
@@ -4090,16 +4084,16 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C155" s="6">
-        <v>16200</v>
+        <v>28800</v>
       </c>
       <c r="D155">
-        <v>37800</v>
+        <v>79200</v>
       </c>
       <c r="E155" s="6">
-        <v>1000000</v>
+        <v>136364</v>
       </c>
       <c r="F155">
         <v>7200</v>
@@ -4110,16 +4104,16 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C156" s="6">
-        <v>28800</v>
+        <v>32400</v>
       </c>
       <c r="D156">
         <v>79200</v>
       </c>
       <c r="E156" s="6">
-        <v>136364</v>
+        <v>150000</v>
       </c>
       <c r="F156">
         <v>7200</v>
@@ -4130,16 +4124,16 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C157" s="6">
-        <v>32400</v>
+        <v>41400</v>
       </c>
       <c r="D157">
-        <v>79200</v>
+        <v>82800</v>
       </c>
       <c r="E157" s="6">
-        <v>150000</v>
+        <v>400000</v>
       </c>
       <c r="F157">
         <v>7200</v>
@@ -4150,16 +4144,16 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C158" s="6">
-        <v>41400</v>
+        <v>36000</v>
       </c>
       <c r="D158">
         <v>82800</v>
       </c>
       <c r="E158" s="6">
-        <v>400000</v>
+        <v>350000</v>
       </c>
       <c r="F158">
         <v>7200</v>
@@ -4170,16 +4164,16 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>161</v>
-      </c>
-      <c r="C159" s="6">
-        <v>36000</v>
-      </c>
-      <c r="D159">
-        <v>82800</v>
+        <v>162</v>
+      </c>
+      <c r="C159" s="8">
+        <v>0</v>
+      </c>
+      <c r="D159" s="8">
+        <v>86400</v>
       </c>
       <c r="E159" s="6">
-        <v>350000</v>
+        <v>227273</v>
       </c>
       <c r="F159">
         <v>7200</v>
@@ -4190,7 +4184,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C160" s="8">
         <v>0</v>
@@ -4199,7 +4193,7 @@
         <v>86400</v>
       </c>
       <c r="E160" s="6">
-        <v>227273</v>
+        <v>150000</v>
       </c>
       <c r="F160">
         <v>7200</v>
@@ -4210,16 +4204,16 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>163</v>
-      </c>
-      <c r="C161" s="8">
-        <v>0</v>
-      </c>
-      <c r="D161" s="8">
-        <v>86400</v>
+        <v>164</v>
+      </c>
+      <c r="C161" s="6">
+        <v>28800</v>
+      </c>
+      <c r="D161">
+        <v>84600</v>
       </c>
       <c r="E161" s="6">
-        <v>150000</v>
+        <v>400000</v>
       </c>
       <c r="F161">
         <v>7200</v>
@@ -4230,16 +4224,16 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C162" s="6">
         <v>28800</v>
       </c>
       <c r="D162">
-        <v>84600</v>
+        <v>79200</v>
       </c>
       <c r="E162" s="6">
-        <v>400000</v>
+        <v>340909</v>
       </c>
       <c r="F162">
         <v>7200</v>
@@ -4250,16 +4244,16 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C163" s="6">
-        <v>28800</v>
+        <v>25200</v>
       </c>
       <c r="D163">
-        <v>79200</v>
+        <v>77400</v>
       </c>
       <c r="E163" s="6">
-        <v>340909</v>
+        <v>70000</v>
       </c>
       <c r="F163">
         <v>7200</v>
@@ -4270,16 +4264,16 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C164" s="6">
-        <v>25200</v>
+        <v>32400</v>
       </c>
       <c r="D164">
         <v>77400</v>
       </c>
       <c r="E164" s="6">
-        <v>70000</v>
+        <v>340909</v>
       </c>
       <c r="F164">
         <v>7200</v>
@@ -4290,16 +4284,16 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>167</v>
-      </c>
-      <c r="C165" s="6">
-        <v>32400</v>
-      </c>
-      <c r="D165">
-        <v>77400</v>
+        <v>168</v>
+      </c>
+      <c r="C165" s="8">
+        <v>0</v>
+      </c>
+      <c r="D165" s="8">
+        <v>86400</v>
       </c>
       <c r="E165" s="6">
-        <v>340909</v>
+        <v>400000</v>
       </c>
       <c r="F165">
         <v>7200</v>
@@ -4310,16 +4304,16 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>168</v>
-      </c>
-      <c r="C166" s="8">
-        <v>0</v>
-      </c>
-      <c r="D166" s="8">
-        <v>86400</v>
+        <v>169</v>
+      </c>
+      <c r="C166" s="6">
+        <v>21600</v>
+      </c>
+      <c r="D166">
+        <v>81000</v>
       </c>
       <c r="E166" s="6">
-        <v>400000</v>
+        <v>454545</v>
       </c>
       <c r="F166">
         <v>7200</v>
@@ -4330,16 +4324,16 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C167" s="6">
         <v>21600</v>
       </c>
       <c r="D167">
-        <v>81000</v>
+        <v>79200</v>
       </c>
       <c r="E167" s="6">
-        <v>454545</v>
+        <v>600000</v>
       </c>
       <c r="F167">
         <v>7200</v>
@@ -4350,16 +4344,16 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C168" s="6">
-        <v>21600</v>
+        <v>30600</v>
       </c>
       <c r="D168">
-        <v>79200</v>
+        <v>75600</v>
       </c>
       <c r="E168" s="6">
-        <v>600000</v>
+        <v>500000</v>
       </c>
       <c r="F168">
         <v>7200</v>
@@ -4370,16 +4364,16 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C169" s="6">
-        <v>30600</v>
+        <v>25200</v>
       </c>
       <c r="D169">
-        <v>75600</v>
+        <v>79200</v>
       </c>
       <c r="E169" s="6">
-        <v>500000</v>
+        <v>340909</v>
       </c>
       <c r="F169">
         <v>7200</v>
@@ -4390,16 +4384,16 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C170" s="6">
-        <v>25200</v>
+        <v>39600</v>
       </c>
       <c r="D170">
         <v>79200</v>
       </c>
       <c r="E170" s="6">
-        <v>340909</v>
+        <v>800000</v>
       </c>
       <c r="F170">
         <v>7200</v>
@@ -4410,16 +4404,16 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C171" s="6">
-        <v>39600</v>
+        <v>28800</v>
       </c>
       <c r="D171">
-        <v>79200</v>
+        <v>81000</v>
       </c>
       <c r="E171" s="6">
-        <v>800000</v>
+        <v>227273</v>
       </c>
       <c r="F171">
         <v>7200</v>
@@ -4430,16 +4424,16 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>174</v>
-      </c>
-      <c r="C172" s="6">
-        <v>28800</v>
-      </c>
-      <c r="D172">
-        <v>81000</v>
+        <v>175</v>
+      </c>
+      <c r="C172" s="7">
+        <v>36000</v>
+      </c>
+      <c r="D172" s="3">
+        <v>50400</v>
       </c>
       <c r="E172" s="6">
-        <v>227273</v>
+        <v>500000</v>
       </c>
       <c r="F172">
         <v>7200</v>
@@ -4450,16 +4444,16 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>175</v>
-      </c>
-      <c r="C173" s="7">
-        <v>36000</v>
+        <v>176</v>
+      </c>
+      <c r="C173" s="6">
+        <v>32400</v>
       </c>
       <c r="D173" s="3">
-        <v>50400</v>
+        <v>90000</v>
       </c>
       <c r="E173" s="6">
-        <v>500000</v>
+        <v>450000</v>
       </c>
       <c r="F173">
         <v>7200</v>
@@ -4470,16 +4464,16 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C174" s="6">
-        <v>32400</v>
-      </c>
-      <c r="D174" s="3">
-        <v>90000</v>
+        <v>36000</v>
+      </c>
+      <c r="D174">
+        <v>82800</v>
       </c>
       <c r="E174" s="6">
-        <v>450000</v>
+        <v>300000</v>
       </c>
       <c r="F174">
         <v>7200</v>
@@ -4490,13 +4484,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C175" s="6">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="D175">
-        <v>82800</v>
+        <v>84600</v>
       </c>
       <c r="E175" s="6">
         <v>300000</v>
@@ -4510,16 +4504,16 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C176" s="6">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="D176">
-        <v>84600</v>
+        <v>82800</v>
       </c>
       <c r="E176" s="6">
-        <v>300000</v>
+        <v>340909</v>
       </c>
       <c r="F176">
         <v>7200</v>
@@ -4530,16 +4524,16 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>179</v>
-      </c>
-      <c r="C177" s="6">
-        <v>36000</v>
-      </c>
-      <c r="D177">
-        <v>82800</v>
+        <v>180</v>
+      </c>
+      <c r="C177" s="8">
+        <v>0</v>
+      </c>
+      <c r="D177" s="8">
+        <v>86400</v>
       </c>
       <c r="E177" s="6">
-        <v>340909</v>
+        <v>350000</v>
       </c>
       <c r="F177">
         <v>7200</v>
@@ -4550,16 +4544,16 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>180</v>
-      </c>
-      <c r="C178" s="8">
-        <v>0</v>
-      </c>
-      <c r="D178" s="8">
-        <v>86400</v>
+        <v>181</v>
+      </c>
+      <c r="C178" s="6">
+        <v>32400</v>
+      </c>
+      <c r="D178">
+        <v>82800</v>
       </c>
       <c r="E178" s="6">
-        <v>350000</v>
+        <v>454545</v>
       </c>
       <c r="F178">
         <v>7200</v>
@@ -4570,16 +4564,16 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C179" s="6">
-        <v>32400</v>
+        <v>28800</v>
       </c>
       <c r="D179">
-        <v>82800</v>
+        <v>79200</v>
       </c>
       <c r="E179" s="6">
-        <v>454545</v>
+        <v>300000</v>
       </c>
       <c r="F179">
         <v>7200</v>
@@ -4590,16 +4584,16 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C180" s="6">
         <v>28800</v>
       </c>
       <c r="D180">
-        <v>79200</v>
+        <v>82800</v>
       </c>
       <c r="E180" s="6">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="F180">
         <v>7200</v>
@@ -4610,16 +4604,16 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C181" s="6">
-        <v>28800</v>
+        <v>19800</v>
       </c>
       <c r="D181">
-        <v>82800</v>
+        <v>46800</v>
       </c>
       <c r="E181" s="6">
-        <v>400000</v>
+        <v>60000</v>
       </c>
       <c r="F181">
         <v>7200</v>
@@ -4630,10 +4624,10 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C182" s="6">
-        <v>19800</v>
+        <v>23400</v>
       </c>
       <c r="D182">
         <v>46800</v>
@@ -4650,16 +4644,16 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>185</v>
-      </c>
-      <c r="C183" s="6">
-        <v>23400</v>
-      </c>
-      <c r="D183">
-        <v>46800</v>
+        <v>186</v>
+      </c>
+      <c r="C183" s="7">
+        <v>39600</v>
+      </c>
+      <c r="D183" s="3">
+        <v>52200</v>
       </c>
       <c r="E183" s="6">
-        <v>60000</v>
+        <v>250000</v>
       </c>
       <c r="F183">
         <v>7200</v>
@@ -4670,16 +4664,16 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>186</v>
-      </c>
-      <c r="C184" s="7">
+        <v>187</v>
+      </c>
+      <c r="C184" s="6">
         <v>39600</v>
       </c>
-      <c r="D184" s="3">
-        <v>52200</v>
+      <c r="D184">
+        <v>81000</v>
       </c>
       <c r="E184" s="6">
-        <v>250000</v>
+        <v>181818</v>
       </c>
       <c r="F184">
         <v>7200</v>
@@ -4690,16 +4684,16 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>187</v>
-      </c>
-      <c r="C185" s="6">
-        <v>39600</v>
-      </c>
-      <c r="D185">
-        <v>81000</v>
+        <v>188</v>
+      </c>
+      <c r="C185" s="7">
+        <v>36000</v>
+      </c>
+      <c r="D185" s="3">
+        <v>50400</v>
       </c>
       <c r="E185" s="6">
-        <v>181818</v>
+        <v>200000</v>
       </c>
       <c r="F185">
         <v>7200</v>
@@ -4710,16 +4704,16 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>188</v>
-      </c>
-      <c r="C186" s="7">
-        <v>36000</v>
-      </c>
-      <c r="D186" s="3">
-        <v>50400</v>
+        <v>189</v>
+      </c>
+      <c r="C186" s="6">
+        <v>21600</v>
+      </c>
+      <c r="D186">
+        <v>79200</v>
       </c>
       <c r="E186" s="6">
-        <v>200000</v>
+        <v>800000</v>
       </c>
       <c r="F186">
         <v>7200</v>
@@ -4730,16 +4724,16 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C187" s="6">
-        <v>21600</v>
+        <v>32400</v>
       </c>
       <c r="D187">
         <v>79200</v>
       </c>
       <c r="E187" s="6">
-        <v>800000</v>
+        <v>750000</v>
       </c>
       <c r="F187">
         <v>7200</v>
@@ -4750,16 +4744,16 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C188" s="6">
         <v>32400</v>
       </c>
       <c r="D188">
-        <v>79200</v>
+        <v>82800</v>
       </c>
       <c r="E188" s="6">
-        <v>750000</v>
+        <v>200000</v>
       </c>
       <c r="F188">
         <v>7200</v>
@@ -4770,16 +4764,16 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C189" s="6">
-        <v>32400</v>
+        <v>21600</v>
       </c>
       <c r="D189">
-        <v>82800</v>
+        <v>43200</v>
       </c>
       <c r="E189" s="6">
-        <v>200000</v>
+        <v>30000</v>
       </c>
       <c r="F189">
         <v>7200</v>
@@ -4790,38 +4784,18 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C190" s="6">
-        <v>21600</v>
+        <v>25200</v>
       </c>
       <c r="D190">
-        <v>43200</v>
+        <v>79200</v>
       </c>
       <c r="E190" s="6">
-        <v>30000</v>
+        <v>250000</v>
       </c>
       <c r="F190">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A191" s="1">
-        <v>189</v>
-      </c>
-      <c r="B191" t="s">
-        <v>193</v>
-      </c>
-      <c r="C191" s="6">
-        <v>25200</v>
-      </c>
-      <c r="D191">
-        <v>79200</v>
-      </c>
-      <c r="E191" s="6">
-        <v>250000</v>
-      </c>
-      <c r="F191">
         <v>7200</v>
       </c>
     </row>

--- a/src/gatourism/data_P.xlsx
+++ b/src/gatourism/data_P.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
   <si>
     <t>title</t>
   </si>
@@ -596,13 +596,16 @@
   </si>
   <si>
     <t>Nét Huế Restaurant</t>
+  </si>
+  <si>
+    <t>Starting point</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,6 +615,11 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -663,7 +671,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -687,6 +695,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -990,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F190"/>
+  <dimension ref="A1:F191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A190"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1023,20 +1040,20 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6">
-        <v>28800</v>
-      </c>
-      <c r="D2">
-        <v>81000</v>
-      </c>
-      <c r="E2" s="6">
-        <v>273188</v>
-      </c>
-      <c r="F2">
-        <v>7200</v>
+      <c r="B2" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="11">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1044,16 +1061,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="6">
-        <v>25200</v>
+        <v>28800</v>
       </c>
       <c r="D3">
-        <v>77400</v>
+        <v>81000</v>
       </c>
       <c r="E3" s="6">
-        <v>285057</v>
+        <v>273188</v>
       </c>
       <c r="F3">
         <v>7200</v>
@@ -1064,16 +1081,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="6">
-        <v>32400</v>
+        <v>25200</v>
       </c>
       <c r="D4">
         <v>77400</v>
       </c>
       <c r="E4" s="6">
-        <v>122690</v>
+        <v>285057</v>
       </c>
       <c r="F4">
         <v>7200</v>
@@ -1084,16 +1101,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="6">
-        <v>30600</v>
+        <v>32400</v>
       </c>
       <c r="D5">
-        <v>63000</v>
+        <v>77400</v>
       </c>
       <c r="E5" s="6">
-        <v>267071</v>
+        <v>122690</v>
       </c>
       <c r="F5">
         <v>7200</v>
@@ -1104,16 +1121,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="6">
-        <v>28800</v>
+        <v>30600</v>
       </c>
       <c r="D6">
-        <v>77400</v>
+        <v>63000</v>
       </c>
       <c r="E6" s="6">
-        <v>144241</v>
+        <v>267071</v>
       </c>
       <c r="F6">
         <v>7200</v>
@@ -1124,16 +1141,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="6">
-        <v>34200</v>
+        <v>28800</v>
       </c>
       <c r="D7">
-        <v>63000</v>
+        <v>77400</v>
       </c>
       <c r="E7" s="6">
-        <v>206336</v>
+        <v>144241</v>
       </c>
       <c r="F7">
         <v>7200</v>
@@ -1144,16 +1161,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="6">
-        <v>30600</v>
+        <v>34200</v>
       </c>
       <c r="D8">
         <v>63000</v>
       </c>
       <c r="E8" s="6">
-        <v>207468</v>
+        <v>206336</v>
       </c>
       <c r="F8">
         <v>7200</v>
@@ -1164,16 +1181,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="7">
-        <v>28800</v>
-      </c>
-      <c r="D9" s="3">
-        <v>41400</v>
+        <v>11</v>
+      </c>
+      <c r="C9" s="6">
+        <v>30600</v>
+      </c>
+      <c r="D9">
+        <v>63000</v>
       </c>
       <c r="E9" s="6">
-        <v>146196</v>
+        <v>207468</v>
       </c>
       <c r="F9">
         <v>7200</v>
@@ -1184,16 +1201,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="6">
-        <v>30600</v>
-      </c>
-      <c r="D10">
-        <v>61200</v>
+        <v>12</v>
+      </c>
+      <c r="C10" s="7">
+        <v>28800</v>
+      </c>
+      <c r="D10" s="3">
+        <v>41400</v>
       </c>
       <c r="E10" s="6">
-        <v>129415</v>
+        <v>146196</v>
       </c>
       <c r="F10">
         <v>7200</v>
@@ -1204,16 +1221,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="6">
-        <v>25200</v>
+        <v>30600</v>
       </c>
       <c r="D11">
-        <v>77400</v>
+        <v>61200</v>
       </c>
       <c r="E11" s="6">
-        <v>178695</v>
+        <v>129415</v>
       </c>
       <c r="F11">
         <v>7200</v>
@@ -1224,16 +1241,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="6">
         <v>25200</v>
       </c>
       <c r="D12">
-        <v>75600</v>
+        <v>77400</v>
       </c>
       <c r="E12" s="6">
-        <v>221641</v>
+        <v>178695</v>
       </c>
       <c r="F12">
         <v>7200</v>
@@ -1244,16 +1261,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="6">
         <v>25200</v>
       </c>
       <c r="D13">
-        <v>43200</v>
+        <v>75600</v>
       </c>
       <c r="E13" s="6">
-        <v>225617</v>
+        <v>221641</v>
       </c>
       <c r="F13">
         <v>7200</v>
@@ -1264,16 +1281,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="6">
         <v>25200</v>
       </c>
       <c r="D14">
-        <v>77400</v>
+        <v>43200</v>
       </c>
       <c r="E14" s="6">
-        <v>222973</v>
+        <v>225617</v>
       </c>
       <c r="F14">
         <v>7200</v>
@@ -1284,16 +1301,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="6">
-        <v>28800</v>
+        <v>25200</v>
       </c>
       <c r="D15">
-        <v>79200</v>
+        <v>77400</v>
       </c>
       <c r="E15" s="6">
-        <v>209177</v>
+        <v>222973</v>
       </c>
       <c r="F15">
         <v>7200</v>
@@ -1304,16 +1321,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="6">
-        <v>46800</v>
+        <v>28800</v>
       </c>
       <c r="D16">
         <v>79200</v>
       </c>
       <c r="E16" s="6">
-        <v>178743</v>
+        <v>209177</v>
       </c>
       <c r="F16">
         <v>7200</v>
@@ -1324,16 +1341,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="6">
-        <v>30600</v>
+        <v>46800</v>
       </c>
       <c r="D17">
         <v>79200</v>
       </c>
       <c r="E17" s="6">
-        <v>169066</v>
+        <v>178743</v>
       </c>
       <c r="F17">
         <v>7200</v>
@@ -1344,16 +1361,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="6">
-        <v>28800</v>
+        <v>30600</v>
       </c>
       <c r="D18">
-        <v>75600</v>
+        <v>79200</v>
       </c>
       <c r="E18" s="6">
-        <v>179159</v>
+        <v>169066</v>
       </c>
       <c r="F18">
         <v>7200</v>
@@ -1364,16 +1381,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="6">
-        <v>30600</v>
+        <v>28800</v>
       </c>
       <c r="D19">
-        <v>72000</v>
+        <v>75600</v>
       </c>
       <c r="E19" s="6">
-        <v>196029</v>
+        <v>179159</v>
       </c>
       <c r="F19">
         <v>7200</v>
@@ -1384,16 +1401,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="6">
-        <v>28800</v>
+        <v>30600</v>
       </c>
       <c r="D20">
-        <v>64800</v>
+        <v>72000</v>
       </c>
       <c r="E20" s="6">
-        <v>234540</v>
+        <v>196029</v>
       </c>
       <c r="F20">
         <v>7200</v>
@@ -1404,16 +1421,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="6">
-        <v>25200</v>
+        <v>28800</v>
       </c>
       <c r="D21">
-        <v>61200</v>
+        <v>64800</v>
       </c>
       <c r="E21" s="6">
-        <v>245751</v>
+        <v>234540</v>
       </c>
       <c r="F21">
         <v>7200</v>
@@ -1424,16 +1441,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="6">
-        <v>30600</v>
+        <v>25200</v>
       </c>
       <c r="D22">
-        <v>72000</v>
+        <v>61200</v>
       </c>
       <c r="E22" s="6">
-        <v>113699</v>
+        <v>245751</v>
       </c>
       <c r="F22">
         <v>7200</v>
@@ -1444,16 +1461,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="6">
-        <v>28800</v>
+        <v>30600</v>
       </c>
       <c r="D23">
-        <v>75600</v>
+        <v>72000</v>
       </c>
       <c r="E23" s="6">
-        <v>216224</v>
+        <v>113699</v>
       </c>
       <c r="F23">
         <v>7200</v>
@@ -1464,16 +1481,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="6">
-        <v>25200</v>
+        <v>28800</v>
       </c>
       <c r="D24">
-        <v>64800</v>
+        <v>75600</v>
       </c>
       <c r="E24" s="6">
-        <v>115547</v>
+        <v>216224</v>
       </c>
       <c r="F24">
         <v>7200</v>
@@ -1484,16 +1501,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="6">
-        <v>28800</v>
+        <v>25200</v>
       </c>
       <c r="D25">
-        <v>75600</v>
+        <v>64800</v>
       </c>
       <c r="E25" s="6">
-        <v>180930</v>
+        <v>115547</v>
       </c>
       <c r="F25">
         <v>7200</v>
@@ -1504,16 +1521,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="6">
-        <v>30600</v>
+        <v>28800</v>
       </c>
       <c r="D26">
-        <v>72000</v>
+        <v>75600</v>
       </c>
       <c r="E26" s="6">
-        <v>248581</v>
+        <v>180930</v>
       </c>
       <c r="F26">
         <v>7200</v>
@@ -1524,16 +1541,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="8">
-        <v>0</v>
-      </c>
-      <c r="D27" s="8">
-        <v>86400</v>
+        <v>29</v>
+      </c>
+      <c r="C27" s="6">
+        <v>30600</v>
+      </c>
+      <c r="D27">
+        <v>72000</v>
       </c>
       <c r="E27" s="6">
-        <v>233807</v>
+        <v>248581</v>
       </c>
       <c r="F27">
         <v>7200</v>
@@ -1544,16 +1561,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="6">
-        <v>28800</v>
-      </c>
-      <c r="D28">
-        <v>75600</v>
+        <v>30</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0</v>
+      </c>
+      <c r="D28" s="8">
+        <v>86400</v>
       </c>
       <c r="E28" s="6">
-        <v>211010</v>
+        <v>233807</v>
       </c>
       <c r="F28">
         <v>7200</v>
@@ -1564,16 +1581,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="6">
         <v>28800</v>
       </c>
       <c r="D29">
-        <v>57600</v>
+        <v>75600</v>
       </c>
       <c r="E29" s="6">
-        <v>217316</v>
+        <v>211010</v>
       </c>
       <c r="F29">
         <v>7200</v>
@@ -1584,16 +1601,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" s="6">
         <v>28800</v>
       </c>
       <c r="D30">
-        <v>75600</v>
+        <v>57600</v>
       </c>
       <c r="E30" s="6">
-        <v>124842</v>
+        <v>217316</v>
       </c>
       <c r="F30">
         <v>7200</v>
@@ -1604,16 +1621,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" s="6">
         <v>28800</v>
       </c>
       <c r="D31">
-        <v>81000</v>
+        <v>75600</v>
       </c>
       <c r="E31" s="6">
-        <v>298020</v>
+        <v>124842</v>
       </c>
       <c r="F31">
         <v>7200</v>
@@ -1624,16 +1641,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="6">
         <v>28800</v>
       </c>
       <c r="D32">
-        <v>77400</v>
+        <v>81000</v>
       </c>
       <c r="E32" s="6">
-        <v>121574</v>
+        <v>298020</v>
       </c>
       <c r="F32">
         <v>7200</v>
@@ -1644,7 +1661,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="6">
         <v>28800</v>
@@ -1653,7 +1670,7 @@
         <v>77400</v>
       </c>
       <c r="E33" s="6">
-        <v>298040</v>
+        <v>121574</v>
       </c>
       <c r="F33">
         <v>7200</v>
@@ -1664,16 +1681,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="6">
-        <v>32400</v>
+        <v>28800</v>
       </c>
       <c r="D34">
         <v>77400</v>
       </c>
       <c r="E34" s="6">
-        <v>230123</v>
+        <v>298040</v>
       </c>
       <c r="F34">
         <v>7200</v>
@@ -1684,16 +1701,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="6">
-        <v>28800</v>
+        <v>32400</v>
       </c>
       <c r="D35">
-        <v>79200</v>
+        <v>77400</v>
       </c>
       <c r="E35" s="6">
-        <v>172690</v>
+        <v>230123</v>
       </c>
       <c r="F35">
         <v>7200</v>
@@ -1704,16 +1721,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="6">
-        <v>25200</v>
+        <v>28800</v>
       </c>
       <c r="D36">
-        <v>43200</v>
+        <v>79200</v>
       </c>
       <c r="E36" s="6">
-        <v>183633</v>
+        <v>172690</v>
       </c>
       <c r="F36">
         <v>7200</v>
@@ -1724,16 +1741,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="6">
-        <v>28800</v>
+        <v>25200</v>
       </c>
       <c r="D37">
-        <v>75600</v>
+        <v>43200</v>
       </c>
       <c r="E37" s="6">
-        <v>224211</v>
+        <v>183633</v>
       </c>
       <c r="F37">
         <v>7200</v>
@@ -1744,16 +1761,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" s="6">
-        <v>32400</v>
+        <v>28800</v>
       </c>
       <c r="D38">
-        <v>63000</v>
+        <v>75600</v>
       </c>
       <c r="E38" s="6">
-        <v>132034</v>
+        <v>224211</v>
       </c>
       <c r="F38">
         <v>7200</v>
@@ -1764,16 +1781,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" s="6">
-        <v>28800</v>
+        <v>32400</v>
       </c>
       <c r="D39">
-        <v>64800</v>
+        <v>63000</v>
       </c>
       <c r="E39" s="6">
-        <v>290535</v>
+        <v>132034</v>
       </c>
       <c r="F39">
         <v>7200</v>
@@ -1784,16 +1801,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" s="6">
         <v>28800</v>
       </c>
       <c r="D40">
-        <v>61200</v>
+        <v>64800</v>
       </c>
       <c r="E40" s="6">
-        <v>128671</v>
+        <v>290535</v>
       </c>
       <c r="F40">
         <v>7200</v>
@@ -1804,16 +1821,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" s="6">
-        <v>30600</v>
+        <v>28800</v>
       </c>
       <c r="D41">
-        <v>63000</v>
+        <v>61200</v>
       </c>
       <c r="E41" s="6">
-        <v>242301</v>
+        <v>128671</v>
       </c>
       <c r="F41">
         <v>7200</v>
@@ -1824,16 +1841,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="8">
-        <v>0</v>
-      </c>
-      <c r="D42" s="8">
-        <v>86400</v>
+        <v>44</v>
+      </c>
+      <c r="C42" s="6">
+        <v>30600</v>
+      </c>
+      <c r="D42">
+        <v>63000</v>
       </c>
       <c r="E42" s="6">
-        <v>173391</v>
+        <v>242301</v>
       </c>
       <c r="F42">
         <v>7200</v>
@@ -1844,16 +1861,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="6">
-        <v>25200</v>
-      </c>
-      <c r="D43">
-        <v>61200</v>
+        <v>45</v>
+      </c>
+      <c r="C43" s="8">
+        <v>0</v>
+      </c>
+      <c r="D43" s="8">
+        <v>86400</v>
       </c>
       <c r="E43" s="6">
-        <v>222515</v>
+        <v>173391</v>
       </c>
       <c r="F43">
         <v>7200</v>
@@ -1864,16 +1881,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" s="6">
-        <v>32400</v>
+        <v>25200</v>
       </c>
       <c r="D44">
-        <v>75600</v>
+        <v>61200</v>
       </c>
       <c r="E44" s="6">
-        <v>137717</v>
+        <v>222515</v>
       </c>
       <c r="F44">
         <v>7200</v>
@@ -1884,16 +1901,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" s="6">
-        <v>28800</v>
+        <v>32400</v>
       </c>
       <c r="D45">
-        <v>79200</v>
+        <v>75600</v>
       </c>
       <c r="E45" s="6">
-        <v>212968</v>
+        <v>137717</v>
       </c>
       <c r="F45">
         <v>7200</v>
@@ -1904,7 +1921,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46" s="6">
         <v>28800</v>
@@ -1913,7 +1930,7 @@
         <v>79200</v>
       </c>
       <c r="E46" s="6">
-        <v>120022</v>
+        <v>212968</v>
       </c>
       <c r="F46">
         <v>7200</v>
@@ -1924,16 +1941,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" s="6">
-        <v>25200</v>
+        <v>28800</v>
       </c>
       <c r="D47">
         <v>79200</v>
       </c>
       <c r="E47" s="6">
-        <v>130734</v>
+        <v>120022</v>
       </c>
       <c r="F47">
         <v>7200</v>
@@ -1944,16 +1961,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48" s="6">
-        <v>23400</v>
+        <v>25200</v>
       </c>
       <c r="D48">
-        <v>77400</v>
+        <v>79200</v>
       </c>
       <c r="E48" s="6">
-        <v>143186</v>
+        <v>130734</v>
       </c>
       <c r="F48">
         <v>7200</v>
@@ -1964,16 +1981,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49" s="6">
-        <v>25200</v>
+        <v>23400</v>
       </c>
       <c r="D49">
         <v>77400</v>
       </c>
       <c r="E49" s="6">
-        <v>227969</v>
+        <v>143186</v>
       </c>
       <c r="F49">
         <v>7200</v>
@@ -1984,16 +2001,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50" s="6">
-        <v>34200</v>
+        <v>25200</v>
       </c>
       <c r="D50">
-        <v>79200</v>
+        <v>77400</v>
       </c>
       <c r="E50" s="6">
-        <v>202637</v>
+        <v>227969</v>
       </c>
       <c r="F50">
         <v>7200</v>
@@ -2004,16 +2021,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C51" s="6">
-        <v>28800</v>
+        <v>34200</v>
       </c>
       <c r="D51">
-        <v>77400</v>
+        <v>79200</v>
       </c>
       <c r="E51" s="6">
-        <v>159022</v>
+        <v>202637</v>
       </c>
       <c r="F51">
         <v>7200</v>
@@ -2024,16 +2041,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C52" s="6">
         <v>28800</v>
       </c>
       <c r="D52">
-        <v>63000</v>
+        <v>77400</v>
       </c>
       <c r="E52" s="6">
-        <v>122798</v>
+        <v>159022</v>
       </c>
       <c r="F52">
         <v>7200</v>
@@ -2044,16 +2061,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C53" s="6">
-        <v>25200</v>
+        <v>28800</v>
       </c>
       <c r="D53">
-        <v>64800</v>
+        <v>63000</v>
       </c>
       <c r="E53" s="6">
-        <v>147087</v>
+        <v>122798</v>
       </c>
       <c r="F53">
         <v>7200</v>
@@ -2064,16 +2081,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C54" s="6">
-        <v>30600</v>
+        <v>25200</v>
       </c>
       <c r="D54">
-        <v>59400</v>
+        <v>64800</v>
       </c>
       <c r="E54" s="6">
-        <v>187907</v>
+        <v>147087</v>
       </c>
       <c r="F54">
         <v>7200</v>
@@ -2084,16 +2101,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C55" s="6">
-        <v>28800</v>
+        <v>30600</v>
       </c>
       <c r="D55">
-        <v>79200</v>
+        <v>59400</v>
       </c>
       <c r="E55" s="6">
-        <v>123991</v>
+        <v>187907</v>
       </c>
       <c r="F55">
         <v>7200</v>
@@ -2104,16 +2121,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
-      </c>
-      <c r="C56" s="8">
-        <v>0</v>
-      </c>
-      <c r="D56" s="8">
-        <v>86400</v>
+        <v>58</v>
+      </c>
+      <c r="C56" s="6">
+        <v>28800</v>
+      </c>
+      <c r="D56">
+        <v>79200</v>
       </c>
       <c r="E56" s="6">
-        <v>128167</v>
+        <v>123991</v>
       </c>
       <c r="F56">
         <v>7200</v>
@@ -2124,16 +2141,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
-      </c>
-      <c r="C57" s="6">
-        <v>25200</v>
-      </c>
-      <c r="D57">
-        <v>64800</v>
+        <v>59</v>
+      </c>
+      <c r="C57" s="8">
+        <v>0</v>
+      </c>
+      <c r="D57" s="8">
+        <v>86400</v>
       </c>
       <c r="E57" s="6">
-        <v>285138</v>
+        <v>128167</v>
       </c>
       <c r="F57">
         <v>7200</v>
@@ -2144,16 +2161,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C58" s="6">
-        <v>28800</v>
+        <v>25200</v>
       </c>
       <c r="D58">
-        <v>61200</v>
+        <v>64800</v>
       </c>
       <c r="E58" s="6">
-        <v>173867</v>
+        <v>285138</v>
       </c>
       <c r="F58">
         <v>7200</v>
@@ -2164,16 +2181,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C59" s="6">
-        <v>32400</v>
+        <v>28800</v>
       </c>
       <c r="D59">
-        <v>79200</v>
+        <v>61200</v>
       </c>
       <c r="E59" s="6">
-        <v>109660</v>
+        <v>173867</v>
       </c>
       <c r="F59">
         <v>7200</v>
@@ -2184,16 +2201,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C60" s="6">
         <v>32400</v>
       </c>
       <c r="D60">
-        <v>77400</v>
+        <v>79200</v>
       </c>
       <c r="E60" s="6">
-        <v>255730</v>
+        <v>109660</v>
       </c>
       <c r="F60">
         <v>7200</v>
@@ -2204,16 +2221,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
-      </c>
-      <c r="C61" s="8">
-        <v>0</v>
-      </c>
-      <c r="D61" s="8">
-        <v>86400</v>
+        <v>63</v>
+      </c>
+      <c r="C61" s="6">
+        <v>32400</v>
+      </c>
+      <c r="D61">
+        <v>77400</v>
       </c>
       <c r="E61" s="6">
-        <v>133033</v>
+        <v>255730</v>
       </c>
       <c r="F61">
         <v>7200</v>
@@ -2224,16 +2241,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
-      </c>
-      <c r="C62" s="6">
-        <v>28800</v>
-      </c>
-      <c r="D62">
-        <v>79200</v>
+        <v>64</v>
+      </c>
+      <c r="C62" s="8">
+        <v>0</v>
+      </c>
+      <c r="D62" s="8">
+        <v>86400</v>
       </c>
       <c r="E62" s="6">
-        <v>287742</v>
+        <v>133033</v>
       </c>
       <c r="F62">
         <v>7200</v>
@@ -2244,16 +2261,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C63" s="6">
-        <v>32400</v>
+        <v>28800</v>
       </c>
       <c r="D63">
-        <v>77400</v>
+        <v>79200</v>
       </c>
       <c r="E63" s="6">
-        <v>222491</v>
+        <v>287742</v>
       </c>
       <c r="F63">
         <v>7200</v>
@@ -2264,16 +2281,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C64" s="6">
         <v>32400</v>
       </c>
       <c r="D64">
-        <v>84600</v>
+        <v>77400</v>
       </c>
       <c r="E64" s="6">
-        <v>229775</v>
+        <v>222491</v>
       </c>
       <c r="F64">
         <v>7200</v>
@@ -2284,16 +2301,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C65" s="6">
-        <v>28800</v>
+        <v>32400</v>
       </c>
       <c r="D65">
-        <v>63000</v>
+        <v>84600</v>
       </c>
       <c r="E65" s="6">
-        <v>191148</v>
+        <v>229775</v>
       </c>
       <c r="F65">
         <v>7200</v>
@@ -2304,16 +2321,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C66" s="6">
-        <v>25200</v>
+        <v>28800</v>
       </c>
       <c r="D66">
-        <v>61200</v>
+        <v>63000</v>
       </c>
       <c r="E66" s="6">
-        <v>196655</v>
+        <v>191148</v>
       </c>
       <c r="F66">
         <v>7200</v>
@@ -2324,16 +2341,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C67" s="6">
-        <v>18000</v>
+        <v>25200</v>
       </c>
       <c r="D67">
-        <v>79200</v>
+        <v>61200</v>
       </c>
       <c r="E67" s="6">
-        <v>205599</v>
+        <v>196655</v>
       </c>
       <c r="F67">
         <v>7200</v>
@@ -2344,16 +2361,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C68" s="6">
-        <v>25200</v>
+        <v>18000</v>
       </c>
       <c r="D68">
-        <v>64800</v>
+        <v>79200</v>
       </c>
       <c r="E68" s="6">
-        <v>123976</v>
+        <v>205599</v>
       </c>
       <c r="F68">
         <v>7200</v>
@@ -2364,16 +2381,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C69" s="6">
-        <v>0</v>
+        <v>25200</v>
       </c>
       <c r="D69">
-        <v>86400</v>
+        <v>64800</v>
       </c>
       <c r="E69" s="6">
-        <v>262620</v>
+        <v>123976</v>
       </c>
       <c r="F69">
         <v>7200</v>
@@ -2384,16 +2401,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C70" s="6">
-        <v>27000</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>79200</v>
+        <v>86400</v>
       </c>
       <c r="E70" s="6">
-        <v>273732</v>
+        <v>262620</v>
       </c>
       <c r="F70">
         <v>7200</v>
@@ -2404,16 +2421,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C71" s="6">
-        <v>28800</v>
+        <v>27000</v>
       </c>
       <c r="D71">
-        <v>61200</v>
+        <v>79200</v>
       </c>
       <c r="E71" s="6">
-        <v>140022</v>
+        <v>273732</v>
       </c>
       <c r="F71">
         <v>7200</v>
@@ -2424,16 +2441,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C72" s="6">
-        <v>21600</v>
+        <v>28800</v>
       </c>
       <c r="D72">
-        <v>81000</v>
+        <v>61200</v>
       </c>
       <c r="E72" s="6">
-        <v>130457</v>
+        <v>140022</v>
       </c>
       <c r="F72">
         <v>7200</v>
@@ -2444,16 +2461,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C73" s="6">
-        <v>27000</v>
+        <v>21600</v>
       </c>
       <c r="D73">
-        <v>77400</v>
+        <v>81000</v>
       </c>
       <c r="E73" s="6">
-        <v>176534</v>
+        <v>130457</v>
       </c>
       <c r="F73">
         <v>7200</v>
@@ -2464,16 +2481,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C74" s="6">
-        <v>28800</v>
+        <v>27000</v>
       </c>
       <c r="D74">
-        <v>79200</v>
+        <v>77400</v>
       </c>
       <c r="E74" s="6">
-        <v>280149</v>
+        <v>176534</v>
       </c>
       <c r="F74">
         <v>7200</v>
@@ -2484,16 +2501,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C75" s="6">
         <v>28800</v>
       </c>
       <c r="D75">
-        <v>82800</v>
+        <v>79200</v>
       </c>
       <c r="E75" s="6">
-        <v>216456</v>
+        <v>280149</v>
       </c>
       <c r="F75">
         <v>7200</v>
@@ -2504,16 +2521,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C76" s="6">
-        <v>27000</v>
+        <v>28800</v>
       </c>
       <c r="D76">
-        <v>77400</v>
+        <v>82800</v>
       </c>
       <c r="E76" s="6">
-        <v>113922</v>
+        <v>216456</v>
       </c>
       <c r="F76">
         <v>7200</v>
@@ -2524,16 +2541,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C77" s="6">
-        <v>28800</v>
+        <v>27000</v>
       </c>
       <c r="D77">
-        <v>79200</v>
+        <v>77400</v>
       </c>
       <c r="E77" s="6">
-        <v>236440</v>
+        <v>113922</v>
       </c>
       <c r="F77">
         <v>7200</v>
@@ -2544,16 +2561,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C78" s="6">
-        <v>25200</v>
+        <v>28800</v>
       </c>
       <c r="D78">
         <v>79200</v>
       </c>
       <c r="E78" s="6">
-        <v>211451</v>
+        <v>236440</v>
       </c>
       <c r="F78">
         <v>7200</v>
@@ -2564,16 +2581,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C79" s="6">
-        <v>39600</v>
+        <v>25200</v>
       </c>
       <c r="D79">
-        <v>77400</v>
+        <v>79200</v>
       </c>
       <c r="E79" s="6">
-        <v>154162</v>
+        <v>211451</v>
       </c>
       <c r="F79">
         <v>7200</v>
@@ -2584,16 +2601,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C80" s="6">
-        <v>27000</v>
+        <v>39600</v>
       </c>
       <c r="D80">
-        <v>79200</v>
+        <v>77400</v>
       </c>
       <c r="E80" s="6">
-        <v>173799</v>
+        <v>154162</v>
       </c>
       <c r="F80">
         <v>7200</v>
@@ -2604,16 +2621,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C81" s="6">
-        <v>32400</v>
+        <v>27000</v>
       </c>
       <c r="D81">
         <v>79200</v>
       </c>
       <c r="E81" s="6">
-        <v>122195</v>
+        <v>173799</v>
       </c>
       <c r="F81">
         <v>7200</v>
@@ -2624,7 +2641,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" s="6">
         <v>32400</v>
@@ -2633,7 +2650,7 @@
         <v>79200</v>
       </c>
       <c r="E82" s="6">
-        <v>231609</v>
+        <v>122195</v>
       </c>
       <c r="F82">
         <v>7200</v>
@@ -2644,16 +2661,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C83" s="6">
-        <v>28800</v>
+        <v>32400</v>
       </c>
       <c r="D83">
-        <v>75600</v>
+        <v>79200</v>
       </c>
       <c r="E83" s="6">
-        <v>216912</v>
+        <v>231609</v>
       </c>
       <c r="F83">
         <v>7200</v>
@@ -2664,16 +2681,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="6">
-        <v>32400</v>
+        <v>28800</v>
       </c>
       <c r="D84">
-        <v>79200</v>
+        <v>75600</v>
       </c>
       <c r="E84" s="6">
-        <v>235074</v>
+        <v>216912</v>
       </c>
       <c r="F84">
         <v>7200</v>
@@ -2684,16 +2701,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C85" s="6">
-        <v>28800</v>
+        <v>32400</v>
       </c>
       <c r="D85">
         <v>79200</v>
       </c>
       <c r="E85" s="6">
-        <v>171829</v>
+        <v>235074</v>
       </c>
       <c r="F85">
         <v>7200</v>
@@ -2704,7 +2721,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C86" s="6">
         <v>28800</v>
@@ -2713,7 +2730,7 @@
         <v>79200</v>
       </c>
       <c r="E86" s="6">
-        <v>223353</v>
+        <v>171829</v>
       </c>
       <c r="F86">
         <v>7200</v>
@@ -2724,7 +2741,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C87" s="6">
         <v>28800</v>
@@ -2733,7 +2750,7 @@
         <v>79200</v>
       </c>
       <c r="E87" s="6">
-        <v>121675</v>
+        <v>223353</v>
       </c>
       <c r="F87">
         <v>7200</v>
@@ -2744,16 +2761,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C88" s="6">
         <v>28800</v>
       </c>
       <c r="D88">
-        <v>75600</v>
+        <v>79200</v>
       </c>
       <c r="E88" s="6">
-        <v>134040</v>
+        <v>121675</v>
       </c>
       <c r="F88">
         <v>7200</v>
@@ -2764,16 +2781,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C89" s="6">
-        <v>25200</v>
+        <v>28800</v>
       </c>
       <c r="D89">
-        <v>61200</v>
+        <v>75600</v>
       </c>
       <c r="E89" s="6">
-        <v>162290</v>
+        <v>134040</v>
       </c>
       <c r="F89">
         <v>7200</v>
@@ -2784,16 +2801,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C90" s="6">
-        <v>28800</v>
+        <v>25200</v>
       </c>
       <c r="D90">
-        <v>75600</v>
+        <v>61200</v>
       </c>
       <c r="E90" s="6">
-        <v>291734</v>
+        <v>162290</v>
       </c>
       <c r="F90">
         <v>7200</v>
@@ -2804,16 +2821,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C91" s="6">
-        <v>37800</v>
+        <v>28800</v>
       </c>
       <c r="D91">
-        <v>45000</v>
+        <v>75600</v>
       </c>
       <c r="E91" s="6">
-        <v>148838</v>
+        <v>291734</v>
       </c>
       <c r="F91">
         <v>7200</v>
@@ -2824,16 +2841,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C92" s="6">
-        <v>28800</v>
+        <v>37800</v>
       </c>
       <c r="D92">
-        <v>75600</v>
+        <v>45000</v>
       </c>
       <c r="E92" s="6">
-        <v>195424</v>
+        <v>148838</v>
       </c>
       <c r="F92">
         <v>7200</v>
@@ -2844,16 +2861,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>96</v>
-      </c>
-      <c r="C93" s="7">
-        <v>30600</v>
-      </c>
-      <c r="D93" s="3">
-        <v>41400</v>
+        <v>95</v>
+      </c>
+      <c r="C93" s="6">
+        <v>28800</v>
+      </c>
+      <c r="D93">
+        <v>75600</v>
       </c>
       <c r="E93" s="6">
-        <v>279040</v>
+        <v>195424</v>
       </c>
       <c r="F93">
         <v>7200</v>
@@ -2864,16 +2881,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>97</v>
-      </c>
-      <c r="C94" s="6">
-        <v>25200</v>
-      </c>
-      <c r="D94">
-        <v>64800</v>
+        <v>96</v>
+      </c>
+      <c r="C94" s="7">
+        <v>30600</v>
+      </c>
+      <c r="D94" s="3">
+        <v>41400</v>
       </c>
       <c r="E94" s="6">
-        <v>149058</v>
+        <v>279040</v>
       </c>
       <c r="F94">
         <v>7200</v>
@@ -2884,16 +2901,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C95" s="6">
         <v>25200</v>
       </c>
       <c r="D95">
-        <v>61200</v>
+        <v>64800</v>
       </c>
       <c r="E95" s="6">
-        <v>251955</v>
+        <v>149058</v>
       </c>
       <c r="F95">
         <v>7200</v>
@@ -2904,16 +2921,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C96" s="6">
         <v>25200</v>
       </c>
       <c r="D96">
-        <v>77400</v>
+        <v>61200</v>
       </c>
       <c r="E96" s="6">
-        <v>282070</v>
+        <v>251955</v>
       </c>
       <c r="F96">
         <v>7200</v>
@@ -2924,16 +2941,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C97" s="6">
-        <v>28800</v>
+        <v>25200</v>
       </c>
       <c r="D97">
-        <v>75600</v>
+        <v>77400</v>
       </c>
       <c r="E97" s="6">
-        <v>155925</v>
+        <v>282070</v>
       </c>
       <c r="F97">
         <v>7200</v>
@@ -2944,16 +2961,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C98" s="6">
-        <v>30600</v>
+        <v>28800</v>
       </c>
       <c r="D98">
-        <v>77400</v>
+        <v>75600</v>
       </c>
       <c r="E98" s="6">
-        <v>102141</v>
+        <v>155925</v>
       </c>
       <c r="F98">
         <v>7200</v>
@@ -2964,16 +2981,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C99" s="6">
-        <v>27000</v>
+        <v>30600</v>
       </c>
       <c r="D99">
-        <v>61200</v>
+        <v>77400</v>
       </c>
       <c r="E99" s="6">
-        <v>246509</v>
+        <v>102141</v>
       </c>
       <c r="F99">
         <v>7200</v>
@@ -2984,16 +3001,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C100" s="6">
-        <v>34200</v>
+        <v>27000</v>
       </c>
       <c r="D100">
-        <v>75600</v>
+        <v>61200</v>
       </c>
       <c r="E100" s="6">
-        <v>249444</v>
+        <v>246509</v>
       </c>
       <c r="F100">
         <v>7200</v>
@@ -3004,16 +3021,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C101" s="6">
-        <v>28800</v>
+        <v>34200</v>
       </c>
       <c r="D101">
-        <v>79200</v>
+        <v>75600</v>
       </c>
       <c r="E101" s="6">
-        <v>181346</v>
+        <v>249444</v>
       </c>
       <c r="F101">
         <v>7200</v>
@@ -3024,7 +3041,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C102" s="6">
         <v>28800</v>
@@ -3033,7 +3050,7 @@
         <v>79200</v>
       </c>
       <c r="E102" s="6">
-        <v>188022</v>
+        <v>181346</v>
       </c>
       <c r="F102">
         <v>7200</v>
@@ -3044,7 +3061,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C103" s="6">
         <v>28800</v>
@@ -3053,7 +3070,7 @@
         <v>79200</v>
       </c>
       <c r="E103" s="6">
-        <v>287654</v>
+        <v>188022</v>
       </c>
       <c r="F103">
         <v>7200</v>
@@ -3064,16 +3081,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>107</v>
-      </c>
-      <c r="C104" s="8">
-        <v>0</v>
-      </c>
-      <c r="D104" s="8">
-        <v>86400</v>
+        <v>106</v>
+      </c>
+      <c r="C104" s="6">
+        <v>28800</v>
+      </c>
+      <c r="D104">
+        <v>79200</v>
       </c>
       <c r="E104" s="6">
-        <v>126070</v>
+        <v>287654</v>
       </c>
       <c r="F104">
         <v>7200</v>
@@ -3084,16 +3101,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>108</v>
-      </c>
-      <c r="C105" s="6">
-        <v>36000</v>
-      </c>
-      <c r="D105">
-        <v>79200</v>
+        <v>107</v>
+      </c>
+      <c r="C105" s="8">
+        <v>0</v>
+      </c>
+      <c r="D105" s="8">
+        <v>86400</v>
       </c>
       <c r="E105" s="6">
-        <v>277462</v>
+        <v>126070</v>
       </c>
       <c r="F105">
         <v>7200</v>
@@ -3104,16 +3121,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C106" s="6">
-        <v>25200</v>
+        <v>36000</v>
       </c>
       <c r="D106">
         <v>79200</v>
       </c>
       <c r="E106" s="6">
-        <v>295181</v>
+        <v>277462</v>
       </c>
       <c r="F106">
         <v>7200</v>
@@ -3124,16 +3141,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C107" s="6">
-        <v>32400</v>
+        <v>25200</v>
       </c>
       <c r="D107">
-        <v>75600</v>
+        <v>79200</v>
       </c>
       <c r="E107" s="6">
-        <v>241705</v>
+        <v>295181</v>
       </c>
       <c r="F107">
         <v>7200</v>
@@ -3144,16 +3161,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C108" s="6">
-        <v>68400</v>
-      </c>
-      <c r="D108" s="4">
-        <v>97200</v>
+        <v>32400</v>
+      </c>
+      <c r="D108">
+        <v>75600</v>
       </c>
       <c r="E108" s="6">
-        <v>168526</v>
+        <v>241705</v>
       </c>
       <c r="F108">
         <v>7200</v>
@@ -3164,16 +3181,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C109" s="6">
-        <v>28800</v>
-      </c>
-      <c r="D109">
-        <v>77400</v>
+        <v>68400</v>
+      </c>
+      <c r="D109" s="4">
+        <v>97200</v>
       </c>
       <c r="E109" s="6">
-        <v>242233</v>
+        <v>168526</v>
       </c>
       <c r="F109">
         <v>7200</v>
@@ -3184,16 +3201,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C110" s="6">
-        <v>36000</v>
+        <v>28800</v>
       </c>
       <c r="D110">
-        <v>75600</v>
+        <v>77400</v>
       </c>
       <c r="E110" s="6">
-        <v>169997</v>
+        <v>242233</v>
       </c>
       <c r="F110">
         <v>7200</v>
@@ -3204,16 +3221,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C111" s="6">
-        <v>28800</v>
+        <v>36000</v>
       </c>
       <c r="D111">
-        <v>79200</v>
+        <v>75600</v>
       </c>
       <c r="E111" s="6">
-        <v>161010</v>
+        <v>169997</v>
       </c>
       <c r="F111">
         <v>7200</v>
@@ -3224,16 +3241,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C112" s="6">
-        <v>36000</v>
+        <v>28800</v>
       </c>
       <c r="D112">
         <v>79200</v>
       </c>
       <c r="E112" s="6">
-        <v>125417</v>
+        <v>161010</v>
       </c>
       <c r="F112">
         <v>7200</v>
@@ -3244,16 +3261,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C113" s="6">
-        <v>25200</v>
+        <v>36000</v>
       </c>
       <c r="D113">
-        <v>43200</v>
+        <v>79200</v>
       </c>
       <c r="E113" s="6">
-        <v>183369</v>
+        <v>125417</v>
       </c>
       <c r="F113">
         <v>7200</v>
@@ -3264,16 +3281,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C114" s="6">
         <v>25200</v>
       </c>
       <c r="D114">
-        <v>75600</v>
+        <v>43200</v>
       </c>
       <c r="E114" s="6">
-        <v>293671</v>
+        <v>183369</v>
       </c>
       <c r="F114">
         <v>7200</v>
@@ -3284,16 +3301,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C115" s="6">
-        <v>32400</v>
+        <v>25200</v>
       </c>
       <c r="D115">
-        <v>77400</v>
+        <v>75600</v>
       </c>
       <c r="E115" s="6">
-        <v>292574</v>
+        <v>293671</v>
       </c>
       <c r="F115">
         <v>7200</v>
@@ -3304,16 +3321,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C116" s="6">
-        <v>28800</v>
+        <v>32400</v>
       </c>
       <c r="D116">
-        <v>75600</v>
+        <v>77400</v>
       </c>
       <c r="E116" s="6">
-        <v>251917</v>
+        <v>292574</v>
       </c>
       <c r="F116">
         <v>7200</v>
@@ -3324,16 +3341,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C117" s="6">
-        <v>27000</v>
+        <v>28800</v>
       </c>
       <c r="D117">
-        <v>61200</v>
+        <v>75600</v>
       </c>
       <c r="E117" s="6">
-        <v>135538</v>
+        <v>251917</v>
       </c>
       <c r="F117">
         <v>7200</v>
@@ -3344,16 +3361,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C118" s="6">
         <v>27000</v>
       </c>
       <c r="D118">
-        <v>75600</v>
+        <v>61200</v>
       </c>
       <c r="E118" s="6">
-        <v>281034</v>
+        <v>135538</v>
       </c>
       <c r="F118">
         <v>7200</v>
@@ -3364,16 +3381,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C119" s="6">
-        <v>25200</v>
+        <v>27000</v>
       </c>
       <c r="D119">
         <v>75600</v>
       </c>
       <c r="E119" s="6">
-        <v>243086</v>
+        <v>281034</v>
       </c>
       <c r="F119">
         <v>7200</v>
@@ -3384,16 +3401,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C120" s="6">
-        <v>28800</v>
+        <v>25200</v>
       </c>
       <c r="D120">
-        <v>79200</v>
+        <v>75600</v>
       </c>
       <c r="E120" s="6">
-        <v>293296</v>
+        <v>243086</v>
       </c>
       <c r="F120">
         <v>7200</v>
@@ -3404,7 +3421,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C121" s="6">
         <v>28800</v>
@@ -3413,7 +3430,7 @@
         <v>79200</v>
       </c>
       <c r="E121" s="6">
-        <v>247136</v>
+        <v>293296</v>
       </c>
       <c r="F121">
         <v>7200</v>
@@ -3424,16 +3441,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C122" s="6">
         <v>28800</v>
       </c>
       <c r="D122">
-        <v>81000</v>
+        <v>79200</v>
       </c>
       <c r="E122" s="6">
-        <v>133993</v>
+        <v>247136</v>
       </c>
       <c r="F122">
         <v>7200</v>
@@ -3444,16 +3461,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C123" s="6">
         <v>28800</v>
       </c>
       <c r="D123">
-        <v>79200</v>
+        <v>81000</v>
       </c>
       <c r="E123" s="6">
-        <v>208426</v>
+        <v>133993</v>
       </c>
       <c r="F123">
         <v>7200</v>
@@ -3464,16 +3481,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>127</v>
-      </c>
-      <c r="C124" s="8">
-        <v>0</v>
-      </c>
-      <c r="D124" s="8">
-        <v>86400</v>
+        <v>126</v>
+      </c>
+      <c r="C124" s="6">
+        <v>28800</v>
+      </c>
+      <c r="D124">
+        <v>79200</v>
       </c>
       <c r="E124" s="6">
-        <v>199011</v>
+        <v>208426</v>
       </c>
       <c r="F124">
         <v>7200</v>
@@ -3484,16 +3501,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>128</v>
-      </c>
-      <c r="C125" s="6">
-        <v>25200</v>
-      </c>
-      <c r="D125">
-        <v>75600</v>
+        <v>127</v>
+      </c>
+      <c r="C125" s="8">
+        <v>0</v>
+      </c>
+      <c r="D125" s="8">
+        <v>86400</v>
       </c>
       <c r="E125" s="6">
-        <v>210140</v>
+        <v>199011</v>
       </c>
       <c r="F125">
         <v>7200</v>
@@ -3504,16 +3521,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C126" s="6">
-        <v>28800</v>
+        <v>25200</v>
       </c>
       <c r="D126">
-        <v>64800</v>
+        <v>75600</v>
       </c>
       <c r="E126" s="6">
-        <v>246008</v>
+        <v>210140</v>
       </c>
       <c r="F126">
         <v>7200</v>
@@ -3524,16 +3541,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C127" s="6">
-        <v>36000</v>
+        <v>28800</v>
       </c>
       <c r="D127">
-        <v>79200</v>
+        <v>64800</v>
       </c>
       <c r="E127" s="6">
-        <v>118173</v>
+        <v>246008</v>
       </c>
       <c r="F127">
         <v>7200</v>
@@ -3544,16 +3561,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C128" s="6">
-        <v>34200</v>
+        <v>36000</v>
       </c>
       <c r="D128">
         <v>79200</v>
       </c>
       <c r="E128" s="6">
-        <v>266817</v>
+        <v>118173</v>
       </c>
       <c r="F128">
         <v>7200</v>
@@ -3564,7 +3581,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C129" s="6">
         <v>34200</v>
@@ -3573,7 +3590,7 @@
         <v>79200</v>
       </c>
       <c r="E129" s="6">
-        <v>153946</v>
+        <v>266817</v>
       </c>
       <c r="F129">
         <v>7200</v>
@@ -3584,16 +3601,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C130" s="6">
-        <v>28800</v>
+        <v>34200</v>
       </c>
       <c r="D130">
         <v>79200</v>
       </c>
       <c r="E130" s="6">
-        <v>280189</v>
+        <v>153946</v>
       </c>
       <c r="F130">
         <v>7200</v>
@@ -3604,16 +3621,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C131" s="6">
-        <v>25200</v>
+        <v>28800</v>
       </c>
       <c r="D131">
-        <v>61200</v>
+        <v>79200</v>
       </c>
       <c r="E131" s="6">
-        <v>110079</v>
+        <v>280189</v>
       </c>
       <c r="F131">
         <v>7200</v>
@@ -3624,16 +3641,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>135</v>
-      </c>
-      <c r="C132" s="7">
-        <v>28800</v>
-      </c>
-      <c r="D132" s="3">
-        <v>39600</v>
+        <v>134</v>
+      </c>
+      <c r="C132" s="6">
+        <v>25200</v>
+      </c>
+      <c r="D132">
+        <v>61200</v>
       </c>
       <c r="E132" s="6">
-        <v>277642</v>
+        <v>110079</v>
       </c>
       <c r="F132">
         <v>7200</v>
@@ -3644,16 +3661,16 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>136</v>
-      </c>
-      <c r="C133" s="6">
-        <v>32400</v>
-      </c>
-      <c r="D133">
-        <v>61200</v>
+        <v>135</v>
+      </c>
+      <c r="C133" s="7">
+        <v>28800</v>
+      </c>
+      <c r="D133" s="3">
+        <v>39600</v>
       </c>
       <c r="E133" s="6">
-        <v>231474</v>
+        <v>277642</v>
       </c>
       <c r="F133">
         <v>7200</v>
@@ -3664,16 +3681,16 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>137</v>
-      </c>
-      <c r="C134" s="8">
-        <v>0</v>
-      </c>
-      <c r="D134" s="8">
-        <v>86400</v>
+        <v>136</v>
+      </c>
+      <c r="C134" s="6">
+        <v>32400</v>
+      </c>
+      <c r="D134">
+        <v>61200</v>
       </c>
       <c r="E134" s="6">
-        <v>174920</v>
+        <v>231474</v>
       </c>
       <c r="F134">
         <v>7200</v>
@@ -3684,16 +3701,16 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>138</v>
-      </c>
-      <c r="C135" s="6">
-        <v>21600</v>
-      </c>
-      <c r="D135">
-        <v>79200</v>
+        <v>137</v>
+      </c>
+      <c r="C135" s="8">
+        <v>0</v>
+      </c>
+      <c r="D135" s="8">
+        <v>86400</v>
       </c>
       <c r="E135" s="6">
-        <v>142842</v>
+        <v>174920</v>
       </c>
       <c r="F135">
         <v>7200</v>
@@ -3704,16 +3721,16 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C136" s="6">
-        <v>28800</v>
+        <v>21600</v>
       </c>
       <c r="D136">
         <v>79200</v>
       </c>
       <c r="E136" s="6">
-        <v>122094</v>
+        <v>142842</v>
       </c>
       <c r="F136">
         <v>7200</v>
@@ -3724,16 +3741,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C137" s="6">
-        <v>32400</v>
+        <v>28800</v>
       </c>
       <c r="D137">
-        <v>61200</v>
+        <v>79200</v>
       </c>
       <c r="E137" s="6">
-        <v>255775</v>
+        <v>122094</v>
       </c>
       <c r="F137">
         <v>7200</v>
@@ -3744,16 +3761,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C138" s="6">
-        <v>28800</v>
+        <v>32400</v>
       </c>
       <c r="D138">
-        <v>79200</v>
+        <v>61200</v>
       </c>
       <c r="E138" s="6">
-        <v>158666</v>
+        <v>255775</v>
       </c>
       <c r="F138">
         <v>7200</v>
@@ -3764,16 +3781,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C139" s="6">
-        <v>30600</v>
+        <v>28800</v>
       </c>
       <c r="D139">
-        <v>68400</v>
+        <v>79200</v>
       </c>
       <c r="E139" s="6">
-        <v>145252</v>
+        <v>158666</v>
       </c>
       <c r="F139">
         <v>7200</v>
@@ -3784,16 +3801,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C140" s="6">
-        <v>25200</v>
+        <v>30600</v>
       </c>
       <c r="D140">
-        <v>79200</v>
+        <v>68400</v>
       </c>
       <c r="E140" s="6">
-        <v>113950</v>
+        <v>145252</v>
       </c>
       <c r="F140">
         <v>7200</v>
@@ -3804,16 +3821,16 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C141" s="6">
-        <v>27000</v>
+        <v>25200</v>
       </c>
       <c r="D141">
-        <v>64800</v>
+        <v>79200</v>
       </c>
       <c r="E141" s="6">
-        <v>131914</v>
+        <v>113950</v>
       </c>
       <c r="F141">
         <v>7200</v>
@@ -3824,16 +3841,16 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C142" s="6">
         <v>27000</v>
       </c>
       <c r="D142">
-        <v>79200</v>
+        <v>64800</v>
       </c>
       <c r="E142" s="6">
-        <v>117409</v>
+        <v>131914</v>
       </c>
       <c r="F142">
         <v>7200</v>
@@ -3844,16 +3861,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C143" s="6">
-        <v>32400</v>
+        <v>27000</v>
       </c>
       <c r="D143">
         <v>79200</v>
       </c>
       <c r="E143" s="6">
-        <v>234001</v>
+        <v>117409</v>
       </c>
       <c r="F143">
         <v>7200</v>
@@ -3864,16 +3881,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C144" s="6">
-        <v>34200</v>
+        <v>32400</v>
       </c>
       <c r="D144">
-        <v>72000</v>
+        <v>79200</v>
       </c>
       <c r="E144" s="6">
-        <v>299031</v>
+        <v>234001</v>
       </c>
       <c r="F144">
         <v>7200</v>
@@ -3884,16 +3901,16 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C145" s="6">
-        <v>36000</v>
+        <v>34200</v>
       </c>
       <c r="D145">
-        <v>79200</v>
+        <v>72000</v>
       </c>
       <c r="E145" s="6">
-        <v>260391</v>
+        <v>299031</v>
       </c>
       <c r="F145">
         <v>7200</v>
@@ -3904,16 +3921,16 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C146" s="6">
-        <v>30600</v>
+        <v>36000</v>
       </c>
       <c r="D146">
-        <v>61200</v>
+        <v>79200</v>
       </c>
       <c r="E146" s="6">
-        <v>124759</v>
+        <v>260391</v>
       </c>
       <c r="F146">
         <v>7200</v>
@@ -3924,16 +3941,16 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C147" s="6">
-        <v>25200</v>
+        <v>30600</v>
       </c>
       <c r="D147">
-        <v>68400</v>
+        <v>61200</v>
       </c>
       <c r="E147" s="6">
-        <v>283782</v>
+        <v>124759</v>
       </c>
       <c r="F147">
         <v>7200</v>
@@ -3944,16 +3961,16 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C148" s="6">
-        <v>32400</v>
+        <v>25200</v>
       </c>
       <c r="D148">
-        <v>72000</v>
+        <v>68400</v>
       </c>
       <c r="E148" s="6">
-        <v>118803</v>
+        <v>283782</v>
       </c>
       <c r="F148">
         <v>7200</v>
@@ -3964,16 +3981,16 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C149" s="6">
-        <v>21600</v>
+        <v>32400</v>
       </c>
       <c r="D149">
-        <v>79200</v>
-      </c>
-      <c r="E149" s="9">
-        <v>500000</v>
+        <v>72000</v>
+      </c>
+      <c r="E149" s="6">
+        <v>118803</v>
       </c>
       <c r="F149">
         <v>7200</v>
@@ -3984,16 +4001,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C150" s="6">
-        <v>25200</v>
+        <v>21600</v>
       </c>
       <c r="D150">
         <v>79200</v>
       </c>
-      <c r="E150" s="6">
-        <v>50000</v>
+      <c r="E150" s="9">
+        <v>500000</v>
       </c>
       <c r="F150">
         <v>7200</v>
@@ -4004,7 +4021,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C151" s="6">
         <v>25200</v>
@@ -4013,7 +4030,7 @@
         <v>79200</v>
       </c>
       <c r="E151" s="6">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="F151">
         <v>7200</v>
@@ -4024,16 +4041,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C152" s="6">
-        <v>32400</v>
+        <v>25200</v>
       </c>
       <c r="D152">
-        <v>77400</v>
+        <v>79200</v>
       </c>
       <c r="E152" s="6">
-        <v>500000</v>
+        <v>30000</v>
       </c>
       <c r="F152">
         <v>7200</v>
@@ -4044,16 +4061,16 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>156</v>
-      </c>
-      <c r="C153" s="8">
-        <v>0</v>
-      </c>
-      <c r="D153" s="8">
-        <v>86400</v>
+        <v>155</v>
+      </c>
+      <c r="C153" s="6">
+        <v>32400</v>
+      </c>
+      <c r="D153">
+        <v>77400</v>
       </c>
       <c r="E153" s="6">
-        <v>300000</v>
+        <v>500000</v>
       </c>
       <c r="F153">
         <v>7200</v>
@@ -4064,16 +4081,16 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>157</v>
-      </c>
-      <c r="C154" s="6">
-        <v>16200</v>
-      </c>
-      <c r="D154">
-        <v>37800</v>
+        <v>156</v>
+      </c>
+      <c r="C154" s="8">
+        <v>0</v>
+      </c>
+      <c r="D154" s="8">
+        <v>86400</v>
       </c>
       <c r="E154" s="6">
-        <v>1000000</v>
+        <v>300000</v>
       </c>
       <c r="F154">
         <v>7200</v>
@@ -4084,16 +4101,16 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C155" s="6">
-        <v>28800</v>
+        <v>16200</v>
       </c>
       <c r="D155">
-        <v>79200</v>
+        <v>37800</v>
       </c>
       <c r="E155" s="6">
-        <v>136364</v>
+        <v>1000000</v>
       </c>
       <c r="F155">
         <v>7200</v>
@@ -4104,16 +4121,16 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C156" s="6">
-        <v>32400</v>
+        <v>28800</v>
       </c>
       <c r="D156">
         <v>79200</v>
       </c>
       <c r="E156" s="6">
-        <v>150000</v>
+        <v>136364</v>
       </c>
       <c r="F156">
         <v>7200</v>
@@ -4124,16 +4141,16 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C157" s="6">
-        <v>41400</v>
+        <v>32400</v>
       </c>
       <c r="D157">
-        <v>82800</v>
+        <v>79200</v>
       </c>
       <c r="E157" s="6">
-        <v>400000</v>
+        <v>150000</v>
       </c>
       <c r="F157">
         <v>7200</v>
@@ -4144,16 +4161,16 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C158" s="6">
-        <v>36000</v>
+        <v>41400</v>
       </c>
       <c r="D158">
         <v>82800</v>
       </c>
       <c r="E158" s="6">
-        <v>350000</v>
+        <v>400000</v>
       </c>
       <c r="F158">
         <v>7200</v>
@@ -4164,16 +4181,16 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>162</v>
-      </c>
-      <c r="C159" s="8">
-        <v>0</v>
-      </c>
-      <c r="D159" s="8">
-        <v>86400</v>
+        <v>161</v>
+      </c>
+      <c r="C159" s="6">
+        <v>36000</v>
+      </c>
+      <c r="D159">
+        <v>82800</v>
       </c>
       <c r="E159" s="6">
-        <v>227273</v>
+        <v>350000</v>
       </c>
       <c r="F159">
         <v>7200</v>
@@ -4184,7 +4201,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C160" s="8">
         <v>0</v>
@@ -4193,7 +4210,7 @@
         <v>86400</v>
       </c>
       <c r="E160" s="6">
-        <v>150000</v>
+        <v>227273</v>
       </c>
       <c r="F160">
         <v>7200</v>
@@ -4204,16 +4221,16 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>164</v>
-      </c>
-      <c r="C161" s="6">
-        <v>28800</v>
-      </c>
-      <c r="D161">
-        <v>84600</v>
+        <v>163</v>
+      </c>
+      <c r="C161" s="8">
+        <v>0</v>
+      </c>
+      <c r="D161" s="8">
+        <v>86400</v>
       </c>
       <c r="E161" s="6">
-        <v>400000</v>
+        <v>150000</v>
       </c>
       <c r="F161">
         <v>7200</v>
@@ -4224,16 +4241,16 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C162" s="6">
         <v>28800</v>
       </c>
       <c r="D162">
-        <v>79200</v>
+        <v>84600</v>
       </c>
       <c r="E162" s="6">
-        <v>340909</v>
+        <v>400000</v>
       </c>
       <c r="F162">
         <v>7200</v>
@@ -4244,16 +4261,16 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C163" s="6">
-        <v>25200</v>
+        <v>28800</v>
       </c>
       <c r="D163">
-        <v>77400</v>
+        <v>79200</v>
       </c>
       <c r="E163" s="6">
-        <v>70000</v>
+        <v>340909</v>
       </c>
       <c r="F163">
         <v>7200</v>
@@ -4264,16 +4281,16 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C164" s="6">
-        <v>32400</v>
+        <v>25200</v>
       </c>
       <c r="D164">
         <v>77400</v>
       </c>
       <c r="E164" s="6">
-        <v>340909</v>
+        <v>70000</v>
       </c>
       <c r="F164">
         <v>7200</v>
@@ -4284,16 +4301,16 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>168</v>
-      </c>
-      <c r="C165" s="8">
-        <v>0</v>
-      </c>
-      <c r="D165" s="8">
-        <v>86400</v>
+        <v>167</v>
+      </c>
+      <c r="C165" s="6">
+        <v>32400</v>
+      </c>
+      <c r="D165">
+        <v>77400</v>
       </c>
       <c r="E165" s="6">
-        <v>400000</v>
+        <v>340909</v>
       </c>
       <c r="F165">
         <v>7200</v>
@@ -4304,16 +4321,16 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>169</v>
-      </c>
-      <c r="C166" s="6">
-        <v>21600</v>
-      </c>
-      <c r="D166">
-        <v>81000</v>
+        <v>168</v>
+      </c>
+      <c r="C166" s="8">
+        <v>0</v>
+      </c>
+      <c r="D166" s="8">
+        <v>86400</v>
       </c>
       <c r="E166" s="6">
-        <v>454545</v>
+        <v>400000</v>
       </c>
       <c r="F166">
         <v>7200</v>
@@ -4324,16 +4341,16 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C167" s="6">
         <v>21600</v>
       </c>
       <c r="D167">
-        <v>79200</v>
+        <v>81000</v>
       </c>
       <c r="E167" s="6">
-        <v>600000</v>
+        <v>454545</v>
       </c>
       <c r="F167">
         <v>7200</v>
@@ -4344,16 +4361,16 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C168" s="6">
-        <v>30600</v>
+        <v>21600</v>
       </c>
       <c r="D168">
-        <v>75600</v>
+        <v>79200</v>
       </c>
       <c r="E168" s="6">
-        <v>500000</v>
+        <v>600000</v>
       </c>
       <c r="F168">
         <v>7200</v>
@@ -4364,16 +4381,16 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C169" s="6">
-        <v>25200</v>
+        <v>30600</v>
       </c>
       <c r="D169">
-        <v>79200</v>
+        <v>75600</v>
       </c>
       <c r="E169" s="6">
-        <v>340909</v>
+        <v>500000</v>
       </c>
       <c r="F169">
         <v>7200</v>
@@ -4384,16 +4401,16 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C170" s="6">
-        <v>39600</v>
+        <v>25200</v>
       </c>
       <c r="D170">
         <v>79200</v>
       </c>
       <c r="E170" s="6">
-        <v>800000</v>
+        <v>340909</v>
       </c>
       <c r="F170">
         <v>7200</v>
@@ -4404,16 +4421,16 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C171" s="6">
-        <v>28800</v>
+        <v>39600</v>
       </c>
       <c r="D171">
-        <v>81000</v>
+        <v>79200</v>
       </c>
       <c r="E171" s="6">
-        <v>227273</v>
+        <v>800000</v>
       </c>
       <c r="F171">
         <v>7200</v>
@@ -4424,16 +4441,16 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>175</v>
-      </c>
-      <c r="C172" s="7">
-        <v>36000</v>
-      </c>
-      <c r="D172" s="3">
-        <v>50400</v>
+        <v>174</v>
+      </c>
+      <c r="C172" s="6">
+        <v>28800</v>
+      </c>
+      <c r="D172">
+        <v>81000</v>
       </c>
       <c r="E172" s="6">
-        <v>500000</v>
+        <v>227273</v>
       </c>
       <c r="F172">
         <v>7200</v>
@@ -4444,16 +4461,16 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>176</v>
-      </c>
-      <c r="C173" s="6">
-        <v>32400</v>
+        <v>175</v>
+      </c>
+      <c r="C173" s="7">
+        <v>36000</v>
       </c>
       <c r="D173" s="3">
-        <v>90000</v>
+        <v>50400</v>
       </c>
       <c r="E173" s="6">
-        <v>450000</v>
+        <v>500000</v>
       </c>
       <c r="F173">
         <v>7200</v>
@@ -4464,16 +4481,16 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C174" s="6">
-        <v>36000</v>
-      </c>
-      <c r="D174">
-        <v>82800</v>
+        <v>32400</v>
+      </c>
+      <c r="D174" s="3">
+        <v>90000</v>
       </c>
       <c r="E174" s="6">
-        <v>300000</v>
+        <v>450000</v>
       </c>
       <c r="F174">
         <v>7200</v>
@@ -4484,13 +4501,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C175" s="6">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="D175">
-        <v>84600</v>
+        <v>82800</v>
       </c>
       <c r="E175" s="6">
         <v>300000</v>
@@ -4504,16 +4521,16 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C176" s="6">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="D176">
-        <v>82800</v>
+        <v>84600</v>
       </c>
       <c r="E176" s="6">
-        <v>340909</v>
+        <v>300000</v>
       </c>
       <c r="F176">
         <v>7200</v>
@@ -4524,16 +4541,16 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>180</v>
-      </c>
-      <c r="C177" s="8">
-        <v>0</v>
-      </c>
-      <c r="D177" s="8">
-        <v>86400</v>
+        <v>179</v>
+      </c>
+      <c r="C177" s="6">
+        <v>36000</v>
+      </c>
+      <c r="D177">
+        <v>82800</v>
       </c>
       <c r="E177" s="6">
-        <v>350000</v>
+        <v>340909</v>
       </c>
       <c r="F177">
         <v>7200</v>
@@ -4544,16 +4561,16 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>181</v>
-      </c>
-      <c r="C178" s="6">
-        <v>32400</v>
-      </c>
-      <c r="D178">
-        <v>82800</v>
+        <v>180</v>
+      </c>
+      <c r="C178" s="8">
+        <v>0</v>
+      </c>
+      <c r="D178" s="8">
+        <v>86400</v>
       </c>
       <c r="E178" s="6">
-        <v>454545</v>
+        <v>350000</v>
       </c>
       <c r="F178">
         <v>7200</v>
@@ -4564,16 +4581,16 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C179" s="6">
-        <v>28800</v>
+        <v>32400</v>
       </c>
       <c r="D179">
-        <v>79200</v>
+        <v>82800</v>
       </c>
       <c r="E179" s="6">
-        <v>300000</v>
+        <v>454545</v>
       </c>
       <c r="F179">
         <v>7200</v>
@@ -4584,16 +4601,16 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C180" s="6">
         <v>28800</v>
       </c>
       <c r="D180">
-        <v>82800</v>
+        <v>79200</v>
       </c>
       <c r="E180" s="6">
-        <v>400000</v>
+        <v>300000</v>
       </c>
       <c r="F180">
         <v>7200</v>
@@ -4604,16 +4621,16 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C181" s="6">
-        <v>19800</v>
+        <v>28800</v>
       </c>
       <c r="D181">
-        <v>46800</v>
+        <v>82800</v>
       </c>
       <c r="E181" s="6">
-        <v>60000</v>
+        <v>400000</v>
       </c>
       <c r="F181">
         <v>7200</v>
@@ -4624,10 +4641,10 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C182" s="6">
-        <v>23400</v>
+        <v>19800</v>
       </c>
       <c r="D182">
         <v>46800</v>
@@ -4644,16 +4661,16 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>186</v>
-      </c>
-      <c r="C183" s="7">
-        <v>39600</v>
-      </c>
-      <c r="D183" s="3">
-        <v>52200</v>
+        <v>185</v>
+      </c>
+      <c r="C183" s="6">
+        <v>23400</v>
+      </c>
+      <c r="D183">
+        <v>46800</v>
       </c>
       <c r="E183" s="6">
-        <v>250000</v>
+        <v>60000</v>
       </c>
       <c r="F183">
         <v>7200</v>
@@ -4664,16 +4681,16 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>187</v>
-      </c>
-      <c r="C184" s="6">
+        <v>186</v>
+      </c>
+      <c r="C184" s="7">
         <v>39600</v>
       </c>
-      <c r="D184">
-        <v>81000</v>
+      <c r="D184" s="3">
+        <v>52200</v>
       </c>
       <c r="E184" s="6">
-        <v>181818</v>
+        <v>250000</v>
       </c>
       <c r="F184">
         <v>7200</v>
@@ -4684,16 +4701,16 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>188</v>
-      </c>
-      <c r="C185" s="7">
-        <v>36000</v>
-      </c>
-      <c r="D185" s="3">
-        <v>50400</v>
+        <v>187</v>
+      </c>
+      <c r="C185" s="6">
+        <v>39600</v>
+      </c>
+      <c r="D185">
+        <v>81000</v>
       </c>
       <c r="E185" s="6">
-        <v>200000</v>
+        <v>181818</v>
       </c>
       <c r="F185">
         <v>7200</v>
@@ -4704,16 +4721,16 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>189</v>
-      </c>
-      <c r="C186" s="6">
-        <v>21600</v>
-      </c>
-      <c r="D186">
-        <v>79200</v>
+        <v>188</v>
+      </c>
+      <c r="C186" s="7">
+        <v>36000</v>
+      </c>
+      <c r="D186" s="3">
+        <v>50400</v>
       </c>
       <c r="E186" s="6">
-        <v>800000</v>
+        <v>200000</v>
       </c>
       <c r="F186">
         <v>7200</v>
@@ -4724,16 +4741,16 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C187" s="6">
-        <v>32400</v>
+        <v>21600</v>
       </c>
       <c r="D187">
         <v>79200</v>
       </c>
       <c r="E187" s="6">
-        <v>750000</v>
+        <v>800000</v>
       </c>
       <c r="F187">
         <v>7200</v>
@@ -4744,16 +4761,16 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C188" s="6">
         <v>32400</v>
       </c>
       <c r="D188">
-        <v>82800</v>
+        <v>79200</v>
       </c>
       <c r="E188" s="6">
-        <v>200000</v>
+        <v>750000</v>
       </c>
       <c r="F188">
         <v>7200</v>
@@ -4764,16 +4781,16 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C189" s="6">
-        <v>21600</v>
+        <v>32400</v>
       </c>
       <c r="D189">
-        <v>43200</v>
+        <v>82800</v>
       </c>
       <c r="E189" s="6">
-        <v>30000</v>
+        <v>200000</v>
       </c>
       <c r="F189">
         <v>7200</v>
@@ -4784,18 +4801,38 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
+        <v>192</v>
+      </c>
+      <c r="C190" s="6">
+        <v>21600</v>
+      </c>
+      <c r="D190">
+        <v>43200</v>
+      </c>
+      <c r="E190" s="6">
+        <v>30000</v>
+      </c>
+      <c r="F190">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
         <v>193</v>
       </c>
-      <c r="C190" s="6">
+      <c r="C191" s="6">
         <v>25200</v>
       </c>
-      <c r="D190">
-        <v>79200</v>
-      </c>
-      <c r="E190" s="6">
+      <c r="D191">
+        <v>79200</v>
+      </c>
+      <c r="E191" s="6">
         <v>250000</v>
       </c>
-      <c r="F190">
+      <c r="F191">
         <v>7200</v>
       </c>
     </row>

--- a/src/gatourism/data_P.xlsx
+++ b/src/gatourism/data_P.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\Tourism\Tourism\src\gatourism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938ED790-225B-4DAB-8127-FC8A359F5BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739512FC-736F-4507-AB66-0329148679E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1026,7 +1026,7 @@
   <dimension ref="A1:J191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1098,11 +1098,15 @@
         <v>273188</v>
       </c>
       <c r="F3">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="H3">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>7200</v>
+      </c>
+      <c r="I3">
+        <f>F3+5400</f>
+        <v>16200</v>
       </c>
       <c r="J3">
         <v>5400</v>
@@ -1125,11 +1129,15 @@
         <v>285057</v>
       </c>
       <c r="F4">
+        <v>10800</v>
+      </c>
+      <c r="H4">
+        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>5400</v>
       </c>
-      <c r="H4">
-        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+      <c r="I4">
+        <f t="shared" ref="I4:I67" si="0">F4+5400</f>
+        <v>16200</v>
       </c>
       <c r="J4">
         <v>7200</v>
@@ -1152,11 +1160,15 @@
         <v>122690</v>
       </c>
       <c r="F5">
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="H5">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>1800</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>14400</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1176,11 +1188,15 @@
         <v>267071</v>
       </c>
       <c r="F6">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="H6">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>3600</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>12600</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1200,11 +1216,15 @@
         <v>144241</v>
       </c>
       <c r="F7">
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="H7">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>1800</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>14400</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1224,11 +1244,15 @@
         <v>206336</v>
       </c>
       <c r="F8">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H8">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>1800</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>18000</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1248,11 +1272,15 @@
         <v>207468</v>
       </c>
       <c r="F9">
+        <v>10800</v>
+      </c>
+      <c r="H9">
+        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>5400</v>
       </c>
-      <c r="H9">
-        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>16200</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1272,11 +1300,15 @@
         <v>146196</v>
       </c>
       <c r="F10">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="H10">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>3600</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>12600</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1296,11 +1328,15 @@
         <v>129415</v>
       </c>
       <c r="F11">
+        <v>7200</v>
+      </c>
+      <c r="H11">
+        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>1800</v>
       </c>
-      <c r="H11">
-        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>12600</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1320,11 +1356,15 @@
         <v>178695</v>
       </c>
       <c r="F12">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H12">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>7200</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>18000</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1344,11 +1384,15 @@
         <v>221641</v>
       </c>
       <c r="F13">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="H13">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>3600</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>16200</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1368,11 +1412,15 @@
         <v>225617</v>
       </c>
       <c r="F14">
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="H14">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>5400</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>14400</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1392,11 +1440,15 @@
         <v>222973</v>
       </c>
       <c r="F15">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H15">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>3600</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>18000</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1416,14 +1468,18 @@
         <v>209177</v>
       </c>
       <c r="F16">
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="H16">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1800</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1440,14 +1496,18 @@
         <v>178743</v>
       </c>
       <c r="F17">
+        <v>10800</v>
+      </c>
+      <c r="H17">
+        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>5400</v>
       </c>
-      <c r="H17">
-        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1464,14 +1524,18 @@
         <v>169066</v>
       </c>
       <c r="F18">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="H18">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1800</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1488,14 +1552,18 @@
         <v>179159</v>
       </c>
       <c r="F19">
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="H19">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1800</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1512,14 +1580,18 @@
         <v>196029</v>
       </c>
       <c r="F20">
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="H20">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1536,14 +1608,18 @@
         <v>234540</v>
       </c>
       <c r="F21">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H21">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>1800</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1560,14 +1636,18 @@
         <v>245751</v>
       </c>
       <c r="F22">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="H22">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1584,14 +1664,18 @@
         <v>113699</v>
       </c>
       <c r="F23">
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="H23">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>7200</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1608,14 +1692,18 @@
         <v>216224</v>
       </c>
       <c r="F24">
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="H24">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5400</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1632,14 +1720,18 @@
         <v>115547</v>
       </c>
       <c r="F25">
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="H25">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>1800</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1656,14 +1748,18 @@
         <v>180930</v>
       </c>
       <c r="F26">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H26">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3600</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1680,14 +1776,18 @@
         <v>248581</v>
       </c>
       <c r="F27">
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="H27">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>7200</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1704,14 +1804,18 @@
         <v>233807</v>
       </c>
       <c r="F28">
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="H28">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>1800</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1728,14 +1832,18 @@
         <v>211010</v>
       </c>
       <c r="F29">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="H29">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5400</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1752,14 +1860,18 @@
         <v>217316</v>
       </c>
       <c r="F30">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="H30">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1776,14 +1888,18 @@
         <v>124842</v>
       </c>
       <c r="F31">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H31">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5400</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1800,14 +1916,18 @@
         <v>298020</v>
       </c>
       <c r="F32">
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="H32">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>1800</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1824,14 +1944,18 @@
         <v>121574</v>
       </c>
       <c r="F33">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H33">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1848,14 +1972,18 @@
         <v>298040</v>
       </c>
       <c r="F34">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="H34">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3600</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1872,14 +2000,18 @@
         <v>230123</v>
       </c>
       <c r="F35">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H35">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3600</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1896,14 +2028,18 @@
         <v>172690</v>
       </c>
       <c r="F36">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="H36">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5400</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1920,14 +2056,18 @@
         <v>183633</v>
       </c>
       <c r="F37">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H37">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3600</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1944,14 +2084,18 @@
         <v>224211</v>
       </c>
       <c r="F38">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H38">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>5400</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1968,14 +2112,18 @@
         <v>132034</v>
       </c>
       <c r="F39">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H39">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5400</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1992,14 +2140,18 @@
         <v>290535</v>
       </c>
       <c r="F40">
+        <v>9000</v>
+      </c>
+      <c r="H40">
+        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>3600</v>
       </c>
-      <c r="H40">
-        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2016,14 +2168,18 @@
         <v>128671</v>
       </c>
       <c r="F41">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H41">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>7200</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2040,14 +2196,18 @@
         <v>242301</v>
       </c>
       <c r="F42">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="H42">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3600</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2064,14 +2224,18 @@
         <v>173391</v>
       </c>
       <c r="F43">
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="H43">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>7200</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2088,14 +2252,18 @@
         <v>222515</v>
       </c>
       <c r="F44">
+        <v>10800</v>
+      </c>
+      <c r="H44">
+        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>5400</v>
       </c>
-      <c r="H44">
-        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2112,14 +2280,18 @@
         <v>137717</v>
       </c>
       <c r="F45">
+        <v>9000</v>
+      </c>
+      <c r="H45">
+        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>3600</v>
       </c>
-      <c r="H45">
-        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2136,14 +2308,18 @@
         <v>212968</v>
       </c>
       <c r="F46">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="H46">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1800</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2160,14 +2336,18 @@
         <v>120022</v>
       </c>
       <c r="F47">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H47">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1800</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2184,14 +2364,18 @@
         <v>130734</v>
       </c>
       <c r="F48">
+        <v>10800</v>
+      </c>
+      <c r="H48">
+        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>5400</v>
       </c>
-      <c r="H48">
-        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2208,14 +2392,18 @@
         <v>143186</v>
       </c>
       <c r="F49">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H49">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>7200</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2232,14 +2420,18 @@
         <v>227969</v>
       </c>
       <c r="F50">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="H50">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3600</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2256,14 +2448,18 @@
         <v>202637</v>
       </c>
       <c r="F51">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="H51">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2280,14 +2476,18 @@
         <v>159022</v>
       </c>
       <c r="F52">
+        <v>10800</v>
+      </c>
+      <c r="H52">
+        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>5400</v>
       </c>
-      <c r="H52">
-        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I52">
+        <f t="shared" si="0"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2304,14 +2504,18 @@
         <v>122798</v>
       </c>
       <c r="F53">
+        <v>9000</v>
+      </c>
+      <c r="H53">
+        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>3600</v>
       </c>
-      <c r="H53">
-        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I53">
+        <f t="shared" si="0"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2328,14 +2532,18 @@
         <v>147087</v>
       </c>
       <c r="F54">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="H54">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>1800</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I54">
+        <f t="shared" si="0"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2352,14 +2560,18 @@
         <v>187907</v>
       </c>
       <c r="F55">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H55">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2376,14 +2588,18 @@
         <v>123991</v>
       </c>
       <c r="F56">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="H56">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3600</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="0"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2400,14 +2616,18 @@
         <v>128167</v>
       </c>
       <c r="F57">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H57">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3600</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2424,14 +2644,18 @@
         <v>285138</v>
       </c>
       <c r="F58">
+        <v>10800</v>
+      </c>
+      <c r="H58">
+        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>5400</v>
       </c>
-      <c r="H58">
-        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I58">
+        <f t="shared" si="0"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2448,14 +2672,18 @@
         <v>173867</v>
       </c>
       <c r="F59">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="H59">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="0"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2472,14 +2700,18 @@
         <v>109660</v>
       </c>
       <c r="F60">
+        <v>7200</v>
+      </c>
+      <c r="H60">
+        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>1800</v>
       </c>
-      <c r="H60">
-        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I60">
+        <f t="shared" si="0"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2496,14 +2728,18 @@
         <v>255730</v>
       </c>
       <c r="F61">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="H61">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5400</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="0"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2520,14 +2756,18 @@
         <v>133033</v>
       </c>
       <c r="F62">
+        <v>9000</v>
+      </c>
+      <c r="H62">
+        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>3600</v>
       </c>
-      <c r="H62">
-        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I62">
+        <f t="shared" si="0"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2544,14 +2784,18 @@
         <v>287742</v>
       </c>
       <c r="F63">
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="H63">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="0"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2568,14 +2812,18 @@
         <v>222491</v>
       </c>
       <c r="F64">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="H64">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>3600</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I64">
+        <f t="shared" si="0"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2592,14 +2840,18 @@
         <v>229775</v>
       </c>
       <c r="F65">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H65">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>7200</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I65">
+        <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2616,14 +2868,18 @@
         <v>191148</v>
       </c>
       <c r="F66">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="H66">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>7200</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I66">
+        <f t="shared" si="0"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2640,14 +2896,18 @@
         <v>196655</v>
       </c>
       <c r="F67">
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="H67">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="0"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2664,14 +2924,18 @@
         <v>205599</v>
       </c>
       <c r="F68">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="H68">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ref="I68:I131" si="1">F68+5400</f>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2688,14 +2952,18 @@
         <v>123976</v>
       </c>
       <c r="F69">
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="H69">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1800</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="1"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2712,14 +2980,18 @@
         <v>262620</v>
       </c>
       <c r="F70">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="H70">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3600</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="1"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2736,14 +3008,18 @@
         <v>273732</v>
       </c>
       <c r="F71">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="H71">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="1"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2760,14 +3036,18 @@
         <v>140022</v>
       </c>
       <c r="F72">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="H72">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="1"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2784,14 +3064,18 @@
         <v>130457</v>
       </c>
       <c r="F73">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="H73">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3600</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="1"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2808,14 +3092,18 @@
         <v>176534</v>
       </c>
       <c r="F74">
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="H74">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>7200</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I74">
+        <f t="shared" si="1"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2832,14 +3120,18 @@
         <v>280149</v>
       </c>
       <c r="F75">
+        <v>10800</v>
+      </c>
+      <c r="H75">
+        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>5400</v>
       </c>
-      <c r="H75">
-        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I75">
+        <f t="shared" si="1"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2856,14 +3148,18 @@
         <v>216456</v>
       </c>
       <c r="F76">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H76">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3600</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="1"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2880,14 +3176,18 @@
         <v>113922</v>
       </c>
       <c r="F77">
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="H77">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5400</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="1"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2904,14 +3204,18 @@
         <v>236440</v>
       </c>
       <c r="F78">
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="H78">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="1"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2928,14 +3232,18 @@
         <v>211451</v>
       </c>
       <c r="F79">
+        <v>10800</v>
+      </c>
+      <c r="H79">
+        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>5400</v>
       </c>
-      <c r="H79">
-        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I79">
+        <f t="shared" si="1"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2952,14 +3260,18 @@
         <v>154162</v>
       </c>
       <c r="F80">
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="H80">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1800</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="1"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2976,14 +3288,18 @@
         <v>173799</v>
       </c>
       <c r="F81">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="H81">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="1"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3000,14 +3316,18 @@
         <v>122195</v>
       </c>
       <c r="F82">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="H82">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="1"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3024,14 +3344,18 @@
         <v>231609</v>
       </c>
       <c r="F83">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="H83">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>3600</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I83">
+        <f t="shared" si="1"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3048,14 +3372,18 @@
         <v>216912</v>
       </c>
       <c r="F84">
+        <v>9000</v>
+      </c>
+      <c r="H84">
+        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>3600</v>
       </c>
-      <c r="H84">
-        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I84">
+        <f t="shared" si="1"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3072,14 +3400,18 @@
         <v>235074</v>
       </c>
       <c r="F85">
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="H85">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>5400</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I85">
+        <f t="shared" si="1"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3096,14 +3428,18 @@
         <v>171829</v>
       </c>
       <c r="F86">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="H86">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="1"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3120,14 +3456,18 @@
         <v>223353</v>
       </c>
       <c r="F87">
+        <v>7200</v>
+      </c>
+      <c r="H87">
+        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>1800</v>
       </c>
-      <c r="H87">
-        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I87">
+        <f t="shared" si="1"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3144,14 +3484,18 @@
         <v>121675</v>
       </c>
       <c r="F88">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="H88">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3600</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="1"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3168,14 +3512,18 @@
         <v>134040</v>
       </c>
       <c r="F89">
+        <v>9000</v>
+      </c>
+      <c r="H89">
+        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>3600</v>
       </c>
-      <c r="H89">
-        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I89">
+        <f t="shared" si="1"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3192,14 +3540,18 @@
         <v>162290</v>
       </c>
       <c r="F90">
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="H90">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="1"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3216,14 +3568,18 @@
         <v>291734</v>
       </c>
       <c r="F91">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H91">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="1"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3240,14 +3596,18 @@
         <v>148838</v>
       </c>
       <c r="F92">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H92">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1800</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="1"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3264,14 +3624,18 @@
         <v>195424</v>
       </c>
       <c r="F93">
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="H93">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1800</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="1"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3288,14 +3652,18 @@
         <v>279040</v>
       </c>
       <c r="F94">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="H94">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3600</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="1"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3312,14 +3680,18 @@
         <v>149058</v>
       </c>
       <c r="F95">
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="H95">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="1"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3336,14 +3708,18 @@
         <v>251955</v>
       </c>
       <c r="F96">
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="H96">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1800</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="1"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3360,14 +3736,18 @@
         <v>282070</v>
       </c>
       <c r="F97">
+        <v>7200</v>
+      </c>
+      <c r="H97">
+        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>1800</v>
       </c>
-      <c r="H97">
-        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I97">
+        <f t="shared" si="1"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3384,14 +3764,18 @@
         <v>155925</v>
       </c>
       <c r="F98">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="H98">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>7200</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I98">
+        <f t="shared" si="1"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3408,14 +3792,18 @@
         <v>102141</v>
       </c>
       <c r="F99">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="H99">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="1"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3432,14 +3820,18 @@
         <v>246509</v>
       </c>
       <c r="F100">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H100">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3600</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="1"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3456,14 +3848,18 @@
         <v>249444</v>
       </c>
       <c r="F101">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="H101">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="1"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3480,14 +3876,18 @@
         <v>181346</v>
       </c>
       <c r="F102">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H102">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="1"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3504,14 +3904,18 @@
         <v>188022</v>
       </c>
       <c r="F103">
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="H103">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1800</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="1"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3528,14 +3932,18 @@
         <v>287654</v>
       </c>
       <c r="F104">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="H104">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="1"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3552,14 +3960,18 @@
         <v>126070</v>
       </c>
       <c r="F105">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="H105">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="1"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3576,14 +3988,18 @@
         <v>277462</v>
       </c>
       <c r="F106">
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="H106">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="1"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3600,14 +4016,18 @@
         <v>295181</v>
       </c>
       <c r="F107">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="H107">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="1"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3624,14 +4044,18 @@
         <v>241705</v>
       </c>
       <c r="F108">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H108">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="1"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3648,14 +4072,18 @@
         <v>168526</v>
       </c>
       <c r="F109">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="H109">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1800</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="1"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3672,14 +4100,18 @@
         <v>242233</v>
       </c>
       <c r="F110">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="H110">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="1"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3696,14 +4128,18 @@
         <v>169997</v>
       </c>
       <c r="F111">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H111">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3600</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="1"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -3720,14 +4156,18 @@
         <v>161010</v>
       </c>
       <c r="F112">
+        <v>10800</v>
+      </c>
+      <c r="H112">
+        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>5400</v>
       </c>
-      <c r="H112">
-        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I112">
+        <f t="shared" si="1"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -3744,14 +4184,18 @@
         <v>125417</v>
       </c>
       <c r="F113">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="H113">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3600</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="1"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3768,14 +4212,18 @@
         <v>183369</v>
       </c>
       <c r="F114">
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="H114">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="1"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3792,14 +4240,18 @@
         <v>293671</v>
       </c>
       <c r="F115">
+        <v>7200</v>
+      </c>
+      <c r="H115">
+        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>1800</v>
       </c>
-      <c r="H115">
-        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I115">
+        <f t="shared" si="1"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3816,14 +4268,18 @@
         <v>292574</v>
       </c>
       <c r="F116">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="H116">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>1800</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I116">
+        <f t="shared" si="1"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3840,14 +4296,18 @@
         <v>251917</v>
       </c>
       <c r="F117">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H117">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3600</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="1"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3864,14 +4324,18 @@
         <v>135538</v>
       </c>
       <c r="F118">
+        <v>9000</v>
+      </c>
+      <c r="H118">
+        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>3600</v>
       </c>
-      <c r="H118">
-        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I118">
+        <f t="shared" si="1"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3888,14 +4352,18 @@
         <v>281034</v>
       </c>
       <c r="F119">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H119">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="1"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3912,14 +4380,18 @@
         <v>243086</v>
       </c>
       <c r="F120">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="H120">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5400</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="1"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3936,14 +4408,18 @@
         <v>293296</v>
       </c>
       <c r="F121">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="H121">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="1"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3960,14 +4436,18 @@
         <v>247136</v>
       </c>
       <c r="F122">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H122">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5400</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="1"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3984,14 +4464,18 @@
         <v>133993</v>
       </c>
       <c r="F123">
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="H123">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="1"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -4008,14 +4492,18 @@
         <v>208426</v>
       </c>
       <c r="F124">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H124">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3600</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="1"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -4032,14 +4520,18 @@
         <v>199011</v>
       </c>
       <c r="F125">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H125">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5400</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="1"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -4056,14 +4548,18 @@
         <v>210140</v>
       </c>
       <c r="F126">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="H126">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="1"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -4080,14 +4576,18 @@
         <v>246008</v>
       </c>
       <c r="F127">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H127">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5400</v>
+      </c>
+      <c r="I127">
+        <f t="shared" si="1"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -4104,14 +4604,18 @@
         <v>118173</v>
       </c>
       <c r="F128">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="H128">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="I128">
+        <f t="shared" si="1"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -4128,14 +4632,18 @@
         <v>266817</v>
       </c>
       <c r="F129">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H129">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3600</v>
+      </c>
+      <c r="I129">
+        <f t="shared" si="1"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -4152,14 +4660,18 @@
         <v>153946</v>
       </c>
       <c r="F130">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H130">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3600</v>
+      </c>
+      <c r="I130">
+        <f t="shared" si="1"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -4176,14 +4688,18 @@
         <v>280189</v>
       </c>
       <c r="F131">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="H131">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="I131">
+        <f t="shared" si="1"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -4200,14 +4716,18 @@
         <v>110079</v>
       </c>
       <c r="F132">
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="H132">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1800</v>
+      </c>
+      <c r="I132">
+        <f t="shared" ref="I132:I191" si="2">F132+5400</f>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -4224,14 +4744,18 @@
         <v>277642</v>
       </c>
       <c r="F133">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="H133">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3600</v>
+      </c>
+      <c r="I133">
+        <f t="shared" si="2"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -4248,14 +4772,18 @@
         <v>231474</v>
       </c>
       <c r="F134">
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="H134">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1800</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="2"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -4272,14 +4800,18 @@
         <v>174920</v>
       </c>
       <c r="F135">
+        <v>10800</v>
+      </c>
+      <c r="H135">
+        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>5400</v>
       </c>
-      <c r="H135">
-        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I135">
+        <f t="shared" si="2"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -4296,14 +4828,18 @@
         <v>142842</v>
       </c>
       <c r="F136">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="H136">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3600</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="2"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -4320,14 +4856,18 @@
         <v>122094</v>
       </c>
       <c r="F137">
+        <v>7200</v>
+      </c>
+      <c r="H137">
+        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>1800</v>
       </c>
-      <c r="H137">
-        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I137">
+        <f t="shared" si="2"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -4344,14 +4884,18 @@
         <v>255775</v>
       </c>
       <c r="F138">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H138">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3600</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="2"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -4368,14 +4912,18 @@
         <v>158666</v>
       </c>
       <c r="F139">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H139">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3600</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="2"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -4392,14 +4940,18 @@
         <v>145252</v>
       </c>
       <c r="F140">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="H140">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5400</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="2"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -4416,14 +4968,18 @@
         <v>113950</v>
       </c>
       <c r="F141">
+        <v>10800</v>
+      </c>
+      <c r="H141">
+        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>5400</v>
       </c>
-      <c r="H141">
-        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I141">
+        <f t="shared" si="2"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -4440,14 +4996,18 @@
         <v>131914</v>
       </c>
       <c r="F142">
+        <v>7200</v>
+      </c>
+      <c r="H142">
+        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>1800</v>
       </c>
-      <c r="H142">
-        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I142">
+        <f t="shared" si="2"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -4464,14 +5024,18 @@
         <v>117409</v>
       </c>
       <c r="F143">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="H143">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3600</v>
+      </c>
+      <c r="I143">
+        <f t="shared" si="2"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -4488,14 +5052,18 @@
         <v>234001</v>
       </c>
       <c r="F144">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="H144">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5400</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="2"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -4512,14 +5080,18 @@
         <v>299031</v>
       </c>
       <c r="F145">
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="H145">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1800</v>
+      </c>
+      <c r="I145">
+        <f t="shared" si="2"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -4536,14 +5108,18 @@
         <v>260391</v>
       </c>
       <c r="F146">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="H146">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5400</v>
+      </c>
+      <c r="I146">
+        <f t="shared" si="2"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -4560,14 +5136,18 @@
         <v>124759</v>
       </c>
       <c r="F147">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="H147">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="I147">
+        <f t="shared" si="2"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -4584,14 +5164,18 @@
         <v>283782</v>
       </c>
       <c r="F148">
+        <v>10800</v>
+      </c>
+      <c r="H148">
+        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>5400</v>
       </c>
-      <c r="H148">
-        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I148">
+        <f t="shared" si="2"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -4608,14 +5192,18 @@
         <v>118803</v>
       </c>
       <c r="F149">
+        <v>10800</v>
+      </c>
+      <c r="H149">
+        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>5400</v>
       </c>
-      <c r="H149">
-        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I149">
+        <f t="shared" si="2"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -4632,14 +5220,18 @@
         <v>500000</v>
       </c>
       <c r="F150">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="H150">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3600</v>
+      </c>
+      <c r="I150">
+        <f t="shared" si="2"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -4656,14 +5248,18 @@
         <v>50000</v>
       </c>
       <c r="F151">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="H151">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>3600</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I151">
+        <f t="shared" si="2"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -4680,14 +5276,18 @@
         <v>30000</v>
       </c>
       <c r="F152">
+        <v>9000</v>
+      </c>
+      <c r="H152">
+        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>3600</v>
       </c>
-      <c r="H152">
-        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I152">
+        <f t="shared" si="2"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -4704,14 +5304,18 @@
         <v>500000</v>
       </c>
       <c r="F153">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="H153">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="I153">
+        <f t="shared" si="2"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -4728,14 +5332,18 @@
         <v>300000</v>
       </c>
       <c r="F154">
+        <v>9000</v>
+      </c>
+      <c r="H154">
+        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>3600</v>
       </c>
-      <c r="H154">
-        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I154">
+        <f t="shared" si="2"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -4752,14 +5360,18 @@
         <v>1000000</v>
       </c>
       <c r="F155">
+        <v>10800</v>
+      </c>
+      <c r="H155">
+        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>5400</v>
       </c>
-      <c r="H155">
-        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I155">
+        <f t="shared" si="2"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -4776,14 +5388,18 @@
         <v>136364</v>
       </c>
       <c r="F156">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H156">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5400</v>
+      </c>
+      <c r="I156">
+        <f t="shared" si="2"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -4800,14 +5416,18 @@
         <v>150000</v>
       </c>
       <c r="F157">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="H157">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3600</v>
+      </c>
+      <c r="I157">
+        <f t="shared" si="2"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -4824,14 +5444,18 @@
         <v>400000</v>
       </c>
       <c r="F158">
+        <v>9000</v>
+      </c>
+      <c r="H158">
+        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>3600</v>
       </c>
-      <c r="H158">
-        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I158">
+        <f t="shared" si="2"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -4848,14 +5472,18 @@
         <v>350000</v>
       </c>
       <c r="F159">
+        <v>10800</v>
+      </c>
+      <c r="H159">
+        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>5400</v>
       </c>
-      <c r="H159">
-        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I159">
+        <f t="shared" si="2"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -4872,14 +5500,18 @@
         <v>227273</v>
       </c>
       <c r="F160">
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="H160">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="I160">
+        <f t="shared" si="2"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -4896,14 +5528,18 @@
         <v>150000</v>
       </c>
       <c r="F161">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="H161">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3600</v>
+      </c>
+      <c r="I161">
+        <f t="shared" si="2"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -4920,14 +5556,18 @@
         <v>400000</v>
       </c>
       <c r="F162">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H162">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3600</v>
+      </c>
+      <c r="I162">
+        <f t="shared" si="2"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -4944,14 +5584,18 @@
         <v>340909</v>
       </c>
       <c r="F163">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="H163">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>7200</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I163">
+        <f t="shared" si="2"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -4968,14 +5612,18 @@
         <v>70000</v>
       </c>
       <c r="F164">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H164">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3600</v>
+      </c>
+      <c r="I164">
+        <f t="shared" si="2"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -4992,14 +5640,18 @@
         <v>340909</v>
       </c>
       <c r="F165">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="H165">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>5400</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I165">
+        <f t="shared" si="2"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -5016,14 +5668,18 @@
         <v>400000</v>
       </c>
       <c r="F166">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H166">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3600</v>
+      </c>
+      <c r="I166">
+        <f t="shared" si="2"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -5040,14 +5696,18 @@
         <v>454545</v>
       </c>
       <c r="F167">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="H167">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5400</v>
+      </c>
+      <c r="I167">
+        <f t="shared" si="2"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -5064,14 +5724,18 @@
         <v>600000</v>
       </c>
       <c r="F168">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H168">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="I168">
+        <f t="shared" si="2"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -5088,14 +5752,18 @@
         <v>500000</v>
       </c>
       <c r="F169">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="H169">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3600</v>
+      </c>
+      <c r="I169">
+        <f t="shared" si="2"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -5112,14 +5780,18 @@
         <v>340909</v>
       </c>
       <c r="F170">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H170">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5400</v>
+      </c>
+      <c r="I170">
+        <f t="shared" si="2"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -5136,14 +5808,18 @@
         <v>800000</v>
       </c>
       <c r="F171">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="H171">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3600</v>
+      </c>
+      <c r="I171">
+        <f t="shared" si="2"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -5160,14 +5836,18 @@
         <v>227273</v>
       </c>
       <c r="F172">
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="H172">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="I172">
+        <f t="shared" si="2"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -5184,14 +5864,18 @@
         <v>500000</v>
       </c>
       <c r="F173">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H173">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>7200</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I173">
+        <f t="shared" si="2"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -5208,14 +5892,18 @@
         <v>450000</v>
       </c>
       <c r="F174">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H174">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5400</v>
+      </c>
+      <c r="I174">
+        <f t="shared" si="2"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -5232,14 +5920,18 @@
         <v>300000</v>
       </c>
       <c r="F175">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="H175">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="I175">
+        <f t="shared" si="2"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -5256,14 +5948,18 @@
         <v>300000</v>
       </c>
       <c r="F176">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H176">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1800</v>
+      </c>
+      <c r="I176">
+        <f t="shared" si="2"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -5280,14 +5976,18 @@
         <v>340909</v>
       </c>
       <c r="F177">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H177">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5400</v>
+      </c>
+      <c r="I177">
+        <f t="shared" si="2"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -5304,14 +6004,18 @@
         <v>350000</v>
       </c>
       <c r="F178">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="H178">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>5400</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I178">
+        <f t="shared" si="2"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -5328,14 +6032,18 @@
         <v>454545</v>
       </c>
       <c r="F179">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H179">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1800</v>
+      </c>
+      <c r="I179">
+        <f t="shared" si="2"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -5352,14 +6060,18 @@
         <v>300000</v>
       </c>
       <c r="F180">
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="H180">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>7200</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I180">
+        <f t="shared" si="2"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -5376,14 +6088,18 @@
         <v>400000</v>
       </c>
       <c r="F181">
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="H181">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="I181">
+        <f t="shared" si="2"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -5400,14 +6116,18 @@
         <v>60000</v>
       </c>
       <c r="F182">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="H182">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5400</v>
+      </c>
+      <c r="I182">
+        <f t="shared" si="2"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -5424,14 +6144,18 @@
         <v>60000</v>
       </c>
       <c r="F183">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="H183">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>3600</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I183">
+        <f t="shared" si="2"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -5448,14 +6172,18 @@
         <v>250000</v>
       </c>
       <c r="F184">
+        <v>9000</v>
+      </c>
+      <c r="H184">
+        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>3600</v>
       </c>
-      <c r="H184">
-        <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I184">
+        <f t="shared" si="2"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -5472,14 +6200,18 @@
         <v>181818</v>
       </c>
       <c r="F185">
-        <v>7200</v>
+        <v>12600</v>
       </c>
       <c r="H185">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5400</v>
+      </c>
+      <c r="I185">
+        <f t="shared" si="2"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -5496,14 +6228,18 @@
         <v>200000</v>
       </c>
       <c r="F186">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="H186">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5400</v>
+      </c>
+      <c r="I186">
+        <f t="shared" si="2"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -5520,14 +6256,18 @@
         <v>800000</v>
       </c>
       <c r="F187">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="H187">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>7200</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I187">
+        <f t="shared" si="2"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -5544,14 +6284,18 @@
         <v>750000</v>
       </c>
       <c r="F188">
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="H188">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1800</v>
+      </c>
+      <c r="I188">
+        <f t="shared" si="2"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -5568,14 +6312,18 @@
         <v>200000</v>
       </c>
       <c r="F189">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="H189">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>1800</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I189">
+        <f t="shared" si="2"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -5592,14 +6340,18 @@
         <v>30000</v>
       </c>
       <c r="F190">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="H190">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>1800</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I190">
+        <f t="shared" si="2"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -5616,11 +6368,15 @@
         <v>250000</v>
       </c>
       <c r="F191">
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="H191">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
         <v>7200</v>
+      </c>
+      <c r="I191">
+        <f t="shared" si="2"/>
+        <v>14400</v>
       </c>
     </row>
   </sheetData>

--- a/src/gatourism/data_P.xlsx
+++ b/src/gatourism/data_P.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\Tourism\Tourism\src\gatourism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739512FC-736F-4507-AB66-0329148679E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BA1C6E-A19C-42EF-AAAB-C1C621C4BC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="H3">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>5400</v>
       </c>
       <c r="I3">
         <f>F3+5400</f>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="H4">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>7200</v>
       </c>
       <c r="I4">
         <f t="shared" ref="I4:I67" si="0">F4+5400</f>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="H5">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="H6">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>5400</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="H9">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>7200</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="H10">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>5400</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
@@ -1332,7 +1332,7 @@
       </c>
       <c r="H11">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="H12">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>1800</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="H15">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H17">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>1800</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="H19">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>5400</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="H20">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="H21">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>5400</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
@@ -1640,7 +1640,7 @@
       </c>
       <c r="H22">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>5400</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="H23">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="H24">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>1800</v>
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="H25">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="H26">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>1800</v>
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="H27">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>5400</v>
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="H28">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="H29">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>7200</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="H31">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>3600</v>
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H35">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="I35">
         <f t="shared" si="0"/>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="H36">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>3600</v>
       </c>
       <c r="I36">
         <f t="shared" si="0"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="H37">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>1800</v>
       </c>
       <c r="I37">
         <f t="shared" si="0"/>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="H38">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>1800</v>
       </c>
       <c r="I38">
         <f t="shared" si="0"/>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="H40">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>5400</v>
       </c>
       <c r="I40">
         <f t="shared" si="0"/>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="H41">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>1800</v>
       </c>
       <c r="I41">
         <f t="shared" si="0"/>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="H42">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>5400</v>
       </c>
       <c r="I42">
         <f t="shared" si="0"/>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="H43">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="I43">
         <f t="shared" si="0"/>
@@ -2284,7 +2284,7 @@
       </c>
       <c r="H45">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>5400</v>
       </c>
       <c r="I45">
         <f t="shared" si="0"/>
@@ -2312,7 +2312,7 @@
       </c>
       <c r="H46">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="I46">
         <f t="shared" si="0"/>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="H47">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>5400</v>
       </c>
       <c r="I47">
         <f t="shared" si="0"/>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="H48">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>3600</v>
       </c>
       <c r="I48">
         <f t="shared" si="0"/>
@@ -2424,7 +2424,7 @@
       </c>
       <c r="H50">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>1800</v>
       </c>
       <c r="I50">
         <f t="shared" si="0"/>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="H54">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>5400</v>
       </c>
       <c r="I54">
         <f t="shared" si="0"/>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="H55">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>1800</v>
       </c>
       <c r="I55">
         <f t="shared" si="0"/>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="H57">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>1800</v>
       </c>
       <c r="I57">
         <f t="shared" si="0"/>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="H59">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="I59">
         <f t="shared" si="0"/>
@@ -2704,7 +2704,7 @@
       </c>
       <c r="H60">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="I60">
         <f t="shared" si="0"/>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="H62">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>1800</v>
       </c>
       <c r="I62">
         <f t="shared" si="0"/>
@@ -2788,7 +2788,7 @@
       </c>
       <c r="H63">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="I63">
         <f t="shared" si="0"/>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="H64">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>1800</v>
       </c>
       <c r="I64">
         <f t="shared" si="0"/>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="H66">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>5400</v>
       </c>
       <c r="I66">
         <f t="shared" si="0"/>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="H67">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>1800</v>
       </c>
       <c r="I67">
         <f t="shared" si="0"/>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="H68">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="I68">
         <f t="shared" ref="I68:I131" si="1">F68+5400</f>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="H69">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>5400</v>
       </c>
       <c r="I69">
         <f t="shared" si="1"/>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="H70">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>5400</v>
       </c>
       <c r="I70">
         <f t="shared" si="1"/>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H71">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="I71">
         <f t="shared" si="1"/>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="H72">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="I72">
         <f t="shared" si="1"/>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="H73">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>5400</v>
       </c>
       <c r="I73">
         <f t="shared" si="1"/>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="H74">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>5400</v>
       </c>
       <c r="I74">
         <f t="shared" si="1"/>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="H75">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>3600</v>
       </c>
       <c r="I75">
         <f t="shared" si="1"/>
@@ -3152,7 +3152,7 @@
       </c>
       <c r="H76">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>5400</v>
       </c>
       <c r="I76">
         <f t="shared" si="1"/>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="H78">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>5400</v>
       </c>
       <c r="I78">
         <f t="shared" si="1"/>
@@ -3236,7 +3236,7 @@
       </c>
       <c r="H79">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>7200</v>
       </c>
       <c r="I79">
         <f t="shared" si="1"/>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="H80">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>5400</v>
       </c>
       <c r="I80">
         <f t="shared" si="1"/>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="H81">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="I81">
         <f t="shared" si="1"/>
@@ -3348,7 +3348,7 @@
       </c>
       <c r="H83">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>1800</v>
       </c>
       <c r="I83">
         <f t="shared" si="1"/>
@@ -3376,7 +3376,7 @@
       </c>
       <c r="H84">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="I84">
         <f t="shared" si="1"/>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="H85">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>3600</v>
       </c>
       <c r="I85">
         <f t="shared" si="1"/>
@@ -3432,7 +3432,7 @@
       </c>
       <c r="H86">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="I86">
         <f t="shared" si="1"/>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="H87">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="I87">
         <f t="shared" si="1"/>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H89">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>1800</v>
       </c>
       <c r="I89">
         <f t="shared" si="1"/>
@@ -3544,7 +3544,7 @@
       </c>
       <c r="H90">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="I90">
         <f t="shared" si="1"/>
@@ -3572,7 +3572,7 @@
       </c>
       <c r="H91">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>5400</v>
       </c>
       <c r="I91">
         <f t="shared" si="1"/>
@@ -3684,7 +3684,7 @@
       </c>
       <c r="H95">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="I95">
         <f t="shared" si="1"/>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="H96">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="I96">
         <f t="shared" si="1"/>
@@ -3740,7 +3740,7 @@
       </c>
       <c r="H97">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>5400</v>
       </c>
       <c r="I97">
         <f t="shared" si="1"/>
@@ -3768,7 +3768,7 @@
       </c>
       <c r="H98">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="I98">
         <f t="shared" si="1"/>
@@ -3824,7 +3824,7 @@
       </c>
       <c r="H100">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="I100">
         <f t="shared" si="1"/>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="H101">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="I101">
         <f t="shared" si="1"/>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="H102">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>5400</v>
       </c>
       <c r="I102">
         <f t="shared" si="1"/>
@@ -3908,7 +3908,7 @@
       </c>
       <c r="H103">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="I103">
         <f t="shared" si="1"/>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="H104">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>5400</v>
       </c>
       <c r="I104">
         <f t="shared" si="1"/>
@@ -3964,7 +3964,7 @@
       </c>
       <c r="H105">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>1800</v>
       </c>
       <c r="I105">
         <f t="shared" si="1"/>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="H106">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>5400</v>
       </c>
       <c r="I106">
         <f t="shared" si="1"/>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H107">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>1800</v>
       </c>
       <c r="I107">
         <f t="shared" si="1"/>
@@ -4048,7 +4048,7 @@
       </c>
       <c r="H108">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>1800</v>
       </c>
       <c r="I108">
         <f t="shared" si="1"/>
@@ -4076,7 +4076,7 @@
       </c>
       <c r="H109">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="I109">
         <f t="shared" si="1"/>
@@ -4104,7 +4104,7 @@
       </c>
       <c r="H110">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="I110">
         <f t="shared" si="1"/>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="H111">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="I111">
         <f t="shared" si="1"/>
@@ -4160,7 +4160,7 @@
       </c>
       <c r="H112">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>1800</v>
       </c>
       <c r="I112">
         <f t="shared" si="1"/>
@@ -4216,7 +4216,7 @@
       </c>
       <c r="H114">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="I114">
         <f t="shared" si="1"/>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="H115">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="I115">
         <f t="shared" si="1"/>
@@ -4272,7 +4272,7 @@
       </c>
       <c r="H116">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="I116">
         <f t="shared" si="1"/>
@@ -4300,7 +4300,7 @@
       </c>
       <c r="H117">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>5400</v>
       </c>
       <c r="I117">
         <f t="shared" si="1"/>
@@ -4328,7 +4328,7 @@
       </c>
       <c r="H118">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>1800</v>
       </c>
       <c r="I118">
         <f t="shared" si="1"/>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="H119">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>1800</v>
       </c>
       <c r="I119">
         <f t="shared" si="1"/>
@@ -4412,7 +4412,7 @@
       </c>
       <c r="H121">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>1800</v>
       </c>
       <c r="I121">
         <f t="shared" si="1"/>
@@ -4440,7 +4440,7 @@
       </c>
       <c r="H122">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>7200</v>
       </c>
       <c r="I122">
         <f t="shared" si="1"/>
@@ -4468,7 +4468,7 @@
       </c>
       <c r="H123">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="I123">
         <f t="shared" si="1"/>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="H125">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>3600</v>
       </c>
       <c r="I125">
         <f t="shared" si="1"/>
@@ -4552,7 +4552,7 @@
       </c>
       <c r="H126">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>1800</v>
       </c>
       <c r="I126">
         <f t="shared" si="1"/>
@@ -4580,7 +4580,7 @@
       </c>
       <c r="H127">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>1800</v>
       </c>
       <c r="I127">
         <f t="shared" si="1"/>
@@ -4608,7 +4608,7 @@
       </c>
       <c r="H128">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>5400</v>
       </c>
       <c r="I128">
         <f t="shared" si="1"/>
@@ -4636,7 +4636,7 @@
       </c>
       <c r="H129">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="I129">
         <f t="shared" si="1"/>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="H132">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="I132">
         <f t="shared" ref="I132:I191" si="2">F132+5400</f>
@@ -4748,7 +4748,7 @@
       </c>
       <c r="H133">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>5400</v>
       </c>
       <c r="I133">
         <f t="shared" si="2"/>
@@ -4776,7 +4776,7 @@
       </c>
       <c r="H134">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>5400</v>
       </c>
       <c r="I134">
         <f t="shared" si="2"/>
@@ -4804,7 +4804,7 @@
       </c>
       <c r="H135">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>1800</v>
       </c>
       <c r="I135">
         <f t="shared" si="2"/>
@@ -4832,7 +4832,7 @@
       </c>
       <c r="H136">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>5400</v>
       </c>
       <c r="I136">
         <f t="shared" si="2"/>
@@ -4860,7 +4860,7 @@
       </c>
       <c r="H137">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="I137">
         <f t="shared" si="2"/>
@@ -4888,7 +4888,7 @@
       </c>
       <c r="H138">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="I138">
         <f t="shared" si="2"/>
@@ -4944,7 +4944,7 @@
       </c>
       <c r="H140">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>3600</v>
       </c>
       <c r="I140">
         <f t="shared" si="2"/>
@@ -5000,7 +5000,7 @@
       </c>
       <c r="H142">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="I142">
         <f t="shared" si="2"/>
@@ -5056,7 +5056,7 @@
       </c>
       <c r="H144">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>7200</v>
       </c>
       <c r="I144">
         <f t="shared" si="2"/>
@@ -5112,7 +5112,7 @@
       </c>
       <c r="H146">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>3600</v>
       </c>
       <c r="I146">
         <f t="shared" si="2"/>
@@ -5140,7 +5140,7 @@
       </c>
       <c r="H147">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>1800</v>
       </c>
       <c r="I147">
         <f t="shared" si="2"/>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="H149">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>3600</v>
       </c>
       <c r="I149">
         <f t="shared" si="2"/>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="H150">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="I150">
         <f t="shared" si="2"/>
@@ -5252,7 +5252,7 @@
       </c>
       <c r="H151">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="I151">
         <f t="shared" si="2"/>
@@ -5280,7 +5280,7 @@
       </c>
       <c r="H152">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>5400</v>
       </c>
       <c r="I152">
         <f t="shared" si="2"/>
@@ -5308,7 +5308,7 @@
       </c>
       <c r="H153">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>1800</v>
       </c>
       <c r="I153">
         <f t="shared" si="2"/>
@@ -5336,7 +5336,7 @@
       </c>
       <c r="H154">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>5400</v>
       </c>
       <c r="I154">
         <f t="shared" si="2"/>
@@ -5364,7 +5364,7 @@
       </c>
       <c r="H155">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>7200</v>
       </c>
       <c r="I155">
         <f t="shared" si="2"/>
@@ -5392,7 +5392,7 @@
       </c>
       <c r="H156">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>7200</v>
       </c>
       <c r="I156">
         <f t="shared" si="2"/>
@@ -5420,7 +5420,7 @@
       </c>
       <c r="H157">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>5400</v>
       </c>
       <c r="I157">
         <f t="shared" si="2"/>
@@ -5504,7 +5504,7 @@
       </c>
       <c r="H160">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>5400</v>
       </c>
       <c r="I160">
         <f t="shared" si="2"/>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="H161">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="I161">
         <f t="shared" si="2"/>
@@ -5560,7 +5560,7 @@
       </c>
       <c r="H162">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>1800</v>
       </c>
       <c r="I162">
         <f t="shared" si="2"/>
@@ -5588,7 +5588,7 @@
       </c>
       <c r="H163">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>1800</v>
       </c>
       <c r="I163">
         <f t="shared" si="2"/>
@@ -5616,7 +5616,7 @@
       </c>
       <c r="H164">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>5400</v>
       </c>
       <c r="I164">
         <f t="shared" si="2"/>
@@ -5644,7 +5644,7 @@
       </c>
       <c r="H165">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>7200</v>
       </c>
       <c r="I165">
         <f t="shared" si="2"/>
@@ -5672,7 +5672,7 @@
       </c>
       <c r="H166">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="I166">
         <f t="shared" si="2"/>
@@ -5700,7 +5700,7 @@
       </c>
       <c r="H167">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>1800</v>
       </c>
       <c r="I167">
         <f t="shared" si="2"/>
@@ -5728,7 +5728,7 @@
       </c>
       <c r="H168">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>5400</v>
       </c>
       <c r="I168">
         <f t="shared" si="2"/>
@@ -5756,7 +5756,7 @@
       </c>
       <c r="H169">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>5400</v>
       </c>
       <c r="I169">
         <f t="shared" si="2"/>
@@ -5784,7 +5784,7 @@
       </c>
       <c r="H170">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>3600</v>
       </c>
       <c r="I170">
         <f t="shared" si="2"/>
@@ -5840,7 +5840,7 @@
       </c>
       <c r="H172">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>1800</v>
       </c>
       <c r="I172">
         <f t="shared" si="2"/>
@@ -5868,7 +5868,7 @@
       </c>
       <c r="H173">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="I173">
         <f t="shared" si="2"/>
@@ -5924,7 +5924,7 @@
       </c>
       <c r="H175">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="I175">
         <f t="shared" si="2"/>
@@ -5952,7 +5952,7 @@
       </c>
       <c r="H176">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="I176">
         <f t="shared" si="2"/>
@@ -5980,7 +5980,7 @@
       </c>
       <c r="H177">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>3600</v>
       </c>
       <c r="I177">
         <f t="shared" si="2"/>
@@ -6064,7 +6064,7 @@
       </c>
       <c r="H180">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="I180">
         <f t="shared" si="2"/>
@@ -6092,7 +6092,7 @@
       </c>
       <c r="H181">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>5400</v>
       </c>
       <c r="I181">
         <f t="shared" si="2"/>
@@ -6176,7 +6176,7 @@
       </c>
       <c r="H184">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>1800</v>
       </c>
       <c r="I184">
         <f t="shared" si="2"/>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="H187">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="I187">
         <f t="shared" si="2"/>
@@ -6316,7 +6316,7 @@
       </c>
       <c r="H189">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>5400</v>
       </c>
       <c r="I189">
         <f t="shared" si="2"/>

--- a/src/gatourism/data_P.xlsx
+++ b/src/gatourism/data_P.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\Tourism\Tourism\src\gatourism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BA1C6E-A19C-42EF-AAAB-C1C621C4BC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9658286-D178-4F57-9254-957523C248BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1025,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="H3">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>1800</v>
       </c>
       <c r="I3">
         <f>F3+5400</f>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="H4">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>5400</v>
       </c>
       <c r="I4">
         <f t="shared" ref="I4:I67" si="0">F4+5400</f>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="H5">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>1800</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="H6">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>1800</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="H7">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H8">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>5400</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="H9">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>5400</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="H10">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>3600</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="H13">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="H16">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H17">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
@@ -1528,7 +1528,7 @@
       </c>
       <c r="H18">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>5400</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="H19">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>1800</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="H21">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>1800</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
@@ -1640,7 +1640,7 @@
       </c>
       <c r="H22">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>1800</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="H25">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>5400</v>
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="H27">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>3600</v>
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="H29">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>1800</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="H30">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="H31">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>1800</v>
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
@@ -1920,7 +1920,7 @@
       </c>
       <c r="H32">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="I32">
         <f t="shared" si="0"/>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="H33">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>5400</v>
       </c>
       <c r="I33">
         <f t="shared" si="0"/>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="H34">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H35">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="I35">
         <f t="shared" si="0"/>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="H36">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="I36">
         <f t="shared" si="0"/>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="H38">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>5400</v>
       </c>
       <c r="I38">
         <f t="shared" si="0"/>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="H40">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>3600</v>
       </c>
       <c r="I40">
         <f t="shared" si="0"/>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="H41">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="I41">
         <f t="shared" si="0"/>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="H42">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>7200</v>
       </c>
       <c r="I42">
         <f t="shared" si="0"/>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="H43">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>1800</v>
       </c>
       <c r="I43">
         <f t="shared" si="0"/>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="H44">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>1800</v>
       </c>
       <c r="I44">
         <f t="shared" si="0"/>
@@ -2284,7 +2284,7 @@
       </c>
       <c r="H45">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>7200</v>
       </c>
       <c r="I45">
         <f t="shared" si="0"/>
@@ -2312,7 +2312,7 @@
       </c>
       <c r="H46">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>1800</v>
       </c>
       <c r="I46">
         <f t="shared" si="0"/>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="H47">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>7200</v>
       </c>
       <c r="I47">
         <f t="shared" si="0"/>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="H48">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>5400</v>
       </c>
       <c r="I48">
         <f t="shared" si="0"/>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="H49">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="I49">
         <f t="shared" si="0"/>
@@ -2424,7 +2424,7 @@
       </c>
       <c r="H50">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="I50">
         <f t="shared" si="0"/>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="H51">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="I51">
         <f t="shared" si="0"/>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H53">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="I53">
         <f t="shared" si="0"/>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="H54">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>1800</v>
       </c>
       <c r="I54">
         <f t="shared" si="0"/>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="H55">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="I55">
         <f t="shared" si="0"/>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="H56">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="I56">
         <f t="shared" si="0"/>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="H57">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="I57">
         <f t="shared" si="0"/>
@@ -2704,7 +2704,7 @@
       </c>
       <c r="H60">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="I60">
         <f t="shared" si="0"/>
@@ -2732,7 +2732,7 @@
       </c>
       <c r="H61">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>7200</v>
       </c>
       <c r="I61">
         <f t="shared" si="0"/>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="H62">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="I62">
         <f t="shared" si="0"/>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="H64">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="I64">
         <f t="shared" si="0"/>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="H65">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>1800</v>
       </c>
       <c r="I65">
         <f t="shared" si="0"/>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="H67">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>5400</v>
       </c>
       <c r="I67">
         <f t="shared" si="0"/>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="H68">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>1800</v>
       </c>
       <c r="I68">
         <f t="shared" ref="I68:I131" si="1">F68+5400</f>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="H69">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>3600</v>
       </c>
       <c r="I69">
         <f t="shared" si="1"/>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H71">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="I71">
         <f t="shared" si="1"/>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="H73">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>3600</v>
       </c>
       <c r="I73">
         <f t="shared" si="1"/>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="H74">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>3600</v>
       </c>
       <c r="I74">
         <f t="shared" si="1"/>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="H75">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>5400</v>
       </c>
       <c r="I75">
         <f t="shared" si="1"/>
@@ -3152,7 +3152,7 @@
       </c>
       <c r="H76">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>7200</v>
       </c>
       <c r="I76">
         <f t="shared" si="1"/>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="H78">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>3600</v>
       </c>
       <c r="I78">
         <f t="shared" si="1"/>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="H81">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="I81">
         <f t="shared" si="1"/>
@@ -3320,7 +3320,7 @@
       </c>
       <c r="H82">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>1800</v>
       </c>
       <c r="I82">
         <f t="shared" si="1"/>
@@ -3348,7 +3348,7 @@
       </c>
       <c r="H83">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="I83">
         <f t="shared" si="1"/>
@@ -3376,7 +3376,7 @@
       </c>
       <c r="H84">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="I84">
         <f t="shared" si="1"/>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="H85">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="I85">
         <f t="shared" si="1"/>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="H88">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>1800</v>
       </c>
       <c r="I88">
         <f t="shared" si="1"/>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H89">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="I89">
         <f t="shared" si="1"/>
@@ -3572,7 +3572,7 @@
       </c>
       <c r="H91">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>7200</v>
       </c>
       <c r="I91">
         <f t="shared" si="1"/>
@@ -3600,7 +3600,7 @@
       </c>
       <c r="H92">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>5400</v>
       </c>
       <c r="I92">
         <f t="shared" si="1"/>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="H93">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="I93">
         <f t="shared" si="1"/>
@@ -3656,7 +3656,7 @@
       </c>
       <c r="H94">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>5400</v>
       </c>
       <c r="I94">
         <f t="shared" si="1"/>
@@ -3684,7 +3684,7 @@
       </c>
       <c r="H95">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>1800</v>
       </c>
       <c r="I95">
         <f t="shared" si="1"/>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="H96">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>5400</v>
       </c>
       <c r="I96">
         <f t="shared" si="1"/>
@@ -3768,7 +3768,7 @@
       </c>
       <c r="H98">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="I98">
         <f t="shared" si="1"/>
@@ -3824,7 +3824,7 @@
       </c>
       <c r="H100">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="I100">
         <f t="shared" si="1"/>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="H101">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="I101">
         <f t="shared" si="1"/>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="H102">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>7200</v>
       </c>
       <c r="I102">
         <f t="shared" si="1"/>
@@ -3908,7 +3908,7 @@
       </c>
       <c r="H103">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>1800</v>
       </c>
       <c r="I103">
         <f t="shared" si="1"/>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H107">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="I107">
         <f t="shared" si="1"/>
@@ -4076,7 +4076,7 @@
       </c>
       <c r="H109">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>1800</v>
       </c>
       <c r="I109">
         <f t="shared" si="1"/>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="H111">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="I111">
         <f t="shared" si="1"/>
@@ -4160,7 +4160,7 @@
       </c>
       <c r="H112">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="I112">
         <f t="shared" si="1"/>
@@ -4216,7 +4216,7 @@
       </c>
       <c r="H114">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="I114">
         <f t="shared" si="1"/>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="H115">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="I115">
         <f t="shared" si="1"/>
@@ -4328,7 +4328,7 @@
       </c>
       <c r="H118">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>5400</v>
       </c>
       <c r="I118">
         <f t="shared" si="1"/>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="H119">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>5400</v>
       </c>
       <c r="I119">
         <f t="shared" si="1"/>
@@ -4384,7 +4384,7 @@
       </c>
       <c r="H120">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>7200</v>
       </c>
       <c r="I120">
         <f t="shared" si="1"/>
@@ -4412,7 +4412,7 @@
       </c>
       <c r="H121">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>5400</v>
       </c>
       <c r="I121">
         <f t="shared" si="1"/>
@@ -4468,7 +4468,7 @@
       </c>
       <c r="H123">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="I123">
         <f t="shared" si="1"/>
@@ -4496,7 +4496,7 @@
       </c>
       <c r="H124">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="I124">
         <f t="shared" si="1"/>
@@ -4552,7 +4552,7 @@
       </c>
       <c r="H126">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="I126">
         <f t="shared" si="1"/>
@@ -4580,7 +4580,7 @@
       </c>
       <c r="H127">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>5400</v>
       </c>
       <c r="I127">
         <f t="shared" si="1"/>
@@ -4608,7 +4608,7 @@
       </c>
       <c r="H128">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>7200</v>
       </c>
       <c r="I128">
         <f t="shared" si="1"/>
@@ -4692,7 +4692,7 @@
       </c>
       <c r="H131">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="I131">
         <f t="shared" si="1"/>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="H132">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>1800</v>
       </c>
       <c r="I132">
         <f t="shared" ref="I132:I191" si="2">F132+5400</f>
@@ -4748,7 +4748,7 @@
       </c>
       <c r="H133">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>7200</v>
       </c>
       <c r="I133">
         <f t="shared" si="2"/>
@@ -4776,7 +4776,7 @@
       </c>
       <c r="H134">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>3600</v>
       </c>
       <c r="I134">
         <f t="shared" si="2"/>
@@ -4804,7 +4804,7 @@
       </c>
       <c r="H135">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="I135">
         <f t="shared" si="2"/>
@@ -4832,7 +4832,7 @@
       </c>
       <c r="H136">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>3600</v>
       </c>
       <c r="I136">
         <f t="shared" si="2"/>
@@ -4860,7 +4860,7 @@
       </c>
       <c r="H137">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>5400</v>
       </c>
       <c r="I137">
         <f t="shared" si="2"/>
@@ -4972,7 +4972,7 @@
       </c>
       <c r="H141">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>7200</v>
       </c>
       <c r="I141">
         <f t="shared" si="2"/>
@@ -5000,7 +5000,7 @@
       </c>
       <c r="H142">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="I142">
         <f t="shared" si="2"/>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="H143">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>1800</v>
       </c>
       <c r="I143">
         <f t="shared" si="2"/>
@@ -5056,7 +5056,7 @@
       </c>
       <c r="H144">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="I144">
         <f t="shared" si="2"/>
@@ -5112,7 +5112,7 @@
       </c>
       <c r="H146">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>5400</v>
       </c>
       <c r="I146">
         <f t="shared" si="2"/>
@@ -5168,7 +5168,7 @@
       </c>
       <c r="H148">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>7200</v>
       </c>
       <c r="I148">
         <f t="shared" si="2"/>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="H150">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>1800</v>
       </c>
       <c r="I150">
         <f t="shared" si="2"/>
@@ -5252,7 +5252,7 @@
       </c>
       <c r="H151">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="I151">
         <f t="shared" si="2"/>
@@ -5280,7 +5280,7 @@
       </c>
       <c r="H152">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>3600</v>
       </c>
       <c r="I152">
         <f t="shared" si="2"/>
@@ -5308,7 +5308,7 @@
       </c>
       <c r="H153">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="I153">
         <f t="shared" si="2"/>
@@ -5336,7 +5336,7 @@
       </c>
       <c r="H154">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>3600</v>
       </c>
       <c r="I154">
         <f t="shared" si="2"/>
@@ -5364,7 +5364,7 @@
       </c>
       <c r="H155">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>5400</v>
       </c>
       <c r="I155">
         <f t="shared" si="2"/>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="H158">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="I158">
         <f t="shared" si="2"/>
@@ -5476,7 +5476,7 @@
       </c>
       <c r="H159">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>3600</v>
       </c>
       <c r="I159">
         <f t="shared" si="2"/>
@@ -5560,7 +5560,7 @@
       </c>
       <c r="H162">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>5400</v>
       </c>
       <c r="I162">
         <f t="shared" si="2"/>
@@ -5700,7 +5700,7 @@
       </c>
       <c r="H167">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="I167">
         <f t="shared" si="2"/>
@@ -5728,7 +5728,7 @@
       </c>
       <c r="H168">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>3600</v>
       </c>
       <c r="I168">
         <f t="shared" si="2"/>
@@ -5784,7 +5784,7 @@
       </c>
       <c r="H170">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>5400</v>
       </c>
       <c r="I170">
         <f t="shared" si="2"/>
@@ -5840,7 +5840,7 @@
       </c>
       <c r="H172">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="I172">
         <f t="shared" si="2"/>
@@ -5868,7 +5868,7 @@
       </c>
       <c r="H173">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>5400</v>
       </c>
       <c r="I173">
         <f t="shared" si="2"/>
@@ -5980,7 +5980,7 @@
       </c>
       <c r="H177">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>1800</v>
       </c>
       <c r="I177">
         <f t="shared" si="2"/>
@@ -6008,7 +6008,7 @@
       </c>
       <c r="H178">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>3600</v>
       </c>
       <c r="I178">
         <f t="shared" si="2"/>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="H179">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>5400</v>
       </c>
       <c r="I179">
         <f t="shared" si="2"/>
@@ -6064,7 +6064,7 @@
       </c>
       <c r="H180">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>5400</v>
       </c>
       <c r="I180">
         <f t="shared" si="2"/>
@@ -6092,7 +6092,7 @@
       </c>
       <c r="H181">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>1800</v>
       </c>
       <c r="I181">
         <f t="shared" si="2"/>
@@ -6120,7 +6120,7 @@
       </c>
       <c r="H182">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>1800</v>
       </c>
       <c r="I182">
         <f t="shared" si="2"/>
@@ -6148,7 +6148,7 @@
       </c>
       <c r="H183">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>5400</v>
       </c>
       <c r="I183">
         <f t="shared" si="2"/>
@@ -6176,7 +6176,7 @@
       </c>
       <c r="H184">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>5400</v>
       </c>
       <c r="I184">
         <f t="shared" si="2"/>
@@ -6204,7 +6204,7 @@
       </c>
       <c r="H185">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>7200</v>
       </c>
       <c r="I185">
         <f t="shared" si="2"/>
@@ -6232,7 +6232,7 @@
       </c>
       <c r="H186">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>1800</v>
       </c>
       <c r="I186">
         <f t="shared" si="2"/>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="H187">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>3600</v>
+        <v>1800</v>
       </c>
       <c r="I187">
         <f t="shared" si="2"/>
@@ -6288,7 +6288,7 @@
       </c>
       <c r="H188">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="I188">
         <f t="shared" si="2"/>
@@ -6316,7 +6316,7 @@
       </c>
       <c r="H189">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>5400</v>
+        <v>1800</v>
       </c>
       <c r="I189">
         <f t="shared" si="2"/>
@@ -6344,7 +6344,7 @@
       </c>
       <c r="H190">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="I190">
         <f t="shared" si="2"/>
@@ -6372,7 +6372,7 @@
       </c>
       <c r="H191">
         <f ca="1">INDEX(J1:J4,RANDBETWEEN(1,ROWS(J1:J4)),1)</f>
-        <v>7200</v>
+        <v>1800</v>
       </c>
       <c r="I191">
         <f t="shared" si="2"/>
